--- a/JupyterNotebooks/AvgHW/ShearF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9966990156003565</v>
+        <v>0.9942888429955804</v>
       </c>
       <c r="D3">
-        <v>1.02255342986949</v>
+        <v>0.9828372319867861</v>
       </c>
       <c r="E3">
-        <v>0.9932970024644286</v>
+        <v>1.012481696977369</v>
       </c>
       <c r="F3">
         <v>0.9966990156003565</v>
       </c>
       <c r="G3">
-        <v>0.9828372319867863</v>
+        <v>0.9966990156003565</v>
       </c>
       <c r="H3">
-        <v>1.012481696977369</v>
+        <v>1.022553429869491</v>
       </c>
       <c r="I3">
-        <v>0.9942888429955804</v>
+        <v>1.022553429869491</v>
       </c>
       <c r="J3">
-        <v>1.02255342986949</v>
+        <v>0.9932970024644286</v>
       </c>
       <c r="K3">
         <v>0.9966990156003565</v>
@@ -788,7 +680,7 @@
         <v>1.000359536649002</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,31 +688,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9935509379976035</v>
+        <v>0.9889876958284327</v>
       </c>
       <c r="D4">
+        <v>0.9668497590159907</v>
+      </c>
+      <c r="E4">
+        <v>1.024104766916539</v>
+      </c>
+      <c r="F4">
+        <v>0.9935509379976036</v>
+      </c>
+      <c r="G4">
+        <v>0.9935509379976036</v>
+      </c>
+      <c r="H4">
         <v>1.043443850611905</v>
       </c>
-      <c r="E4">
+      <c r="I4">
+        <v>1.043443850611905</v>
+      </c>
+      <c r="J4">
         <v>0.9871098179442374</v>
       </c>
-      <c r="F4">
-        <v>0.9935509379976035</v>
-      </c>
-      <c r="G4">
-        <v>0.9668497590159907</v>
-      </c>
-      <c r="H4">
-        <v>1.024104766916538</v>
-      </c>
-      <c r="I4">
-        <v>0.9889876958284327</v>
-      </c>
-      <c r="J4">
-        <v>1.043443850611905</v>
-      </c>
       <c r="K4">
-        <v>0.9935509379976035</v>
+        <v>0.9935509379976036</v>
       </c>
       <c r="L4">
         <v>0.9871098179442374</v>
@@ -850,7 +742,7 @@
         <v>1.000674471385784</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9874229271354172</v>
+        <v>0.9788521201062682</v>
       </c>
       <c r="D5">
-        <v>1.083632723005161</v>
+        <v>0.9368783764192616</v>
       </c>
       <c r="E5">
-        <v>0.9753250368868929</v>
+        <v>1.046188591028678</v>
       </c>
       <c r="F5">
         <v>0.9874229271354172</v>
       </c>
       <c r="G5">
-        <v>0.9368783764192616</v>
+        <v>0.9874229271354172</v>
       </c>
       <c r="H5">
-        <v>1.046188591028678</v>
+        <v>1.083632723005161</v>
       </c>
       <c r="I5">
-        <v>0.9788521201062682</v>
+        <v>1.083632723005161</v>
       </c>
       <c r="J5">
-        <v>1.083632723005161</v>
+        <v>0.9753250368868929</v>
       </c>
       <c r="K5">
         <v>0.9874229271354172</v>
@@ -912,7 +804,7 @@
         <v>1.001383295763613</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9814221719476222</v>
+        <v>0.9689479552853938</v>
       </c>
       <c r="D6">
-        <v>1.122815994816953</v>
+        <v>0.9076719595928502</v>
       </c>
       <c r="E6">
-        <v>0.9638145395626547</v>
+        <v>1.067761399800366</v>
       </c>
       <c r="F6">
         <v>0.9814221719476222</v>
       </c>
       <c r="G6">
-        <v>0.9076719595928502</v>
+        <v>0.9814221719476222</v>
       </c>
       <c r="H6">
-        <v>1.067761399800366</v>
+        <v>1.122815994816953</v>
       </c>
       <c r="I6">
-        <v>0.968947955285394</v>
+        <v>1.122815994816953</v>
       </c>
       <c r="J6">
-        <v>1.122815994816953</v>
+        <v>0.9638145395626547</v>
       </c>
       <c r="K6">
         <v>0.9814221719476222</v>
@@ -974,7 +866,7 @@
         <v>1.002072336834307</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,31 +874,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9995348953821249</v>
+        <v>0.9996081709337705</v>
       </c>
       <c r="D7">
+        <v>0.9991556692504916</v>
+      </c>
+      <c r="E7">
+        <v>1.000823695813079</v>
+      </c>
+      <c r="F7">
+        <v>0.9995348953821251</v>
+      </c>
+      <c r="G7">
+        <v>0.9995348953821251</v>
+      </c>
+      <c r="H7">
         <v>1.001651609949274</v>
       </c>
-      <c r="E7">
+      <c r="I7">
+        <v>1.001651609949274</v>
+      </c>
+      <c r="J7">
         <v>0.9996383248620656</v>
       </c>
-      <c r="F7">
-        <v>0.9995348953821249</v>
-      </c>
-      <c r="G7">
-        <v>0.9991556692504917</v>
-      </c>
-      <c r="H7">
-        <v>1.000823695813079</v>
-      </c>
-      <c r="I7">
-        <v>0.9996081709337705</v>
-      </c>
-      <c r="J7">
-        <v>1.001651609949274</v>
-      </c>
       <c r="K7">
-        <v>0.9995348953821249</v>
+        <v>0.9995348953821251</v>
       </c>
       <c r="L7">
         <v>0.9996383248620656</v>
@@ -1036,7 +928,7 @@
         <v>1.000068727698468</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,34 +936,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9989834532413758</v>
+        <v>0.9990891827181051</v>
       </c>
       <c r="D8">
-        <v>1.003827284212734</v>
+        <v>0.9979789229969366</v>
       </c>
       <c r="E8">
-        <v>0.9991326921515197</v>
+        <v>1.001914445332499</v>
       </c>
       <c r="F8">
         <v>0.9989834532413758</v>
       </c>
       <c r="G8">
-        <v>0.9979789229969367</v>
+        <v>0.9989834532413758</v>
       </c>
       <c r="H8">
-        <v>1.001914445332499</v>
+        <v>1.003827284212734</v>
       </c>
       <c r="I8">
-        <v>0.9990891827181051</v>
+        <v>1.003827284212734</v>
       </c>
       <c r="J8">
-        <v>1.003827284212734</v>
+        <v>0.9991326921515199</v>
       </c>
       <c r="K8">
         <v>0.9989834532413758</v>
       </c>
       <c r="L8">
-        <v>0.9991326921515197</v>
+        <v>0.9991326921515199</v>
       </c>
       <c r="M8">
         <v>1.001479988182127</v>
@@ -1098,7 +990,7 @@
         <v>1.000154330108862</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,46 +998,46 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9988064509610675</v>
+        <v>0.9988008917707335</v>
       </c>
       <c r="D9">
-        <v>1.004975866444715</v>
+        <v>0.9971147771401324</v>
       </c>
       <c r="E9">
-        <v>0.9987986037887363</v>
+        <v>1.002545372599141</v>
       </c>
       <c r="F9">
         <v>0.9988064509610675</v>
       </c>
       <c r="G9">
-        <v>0.9971147771401326</v>
+        <v>0.9988064509610675</v>
       </c>
       <c r="H9">
-        <v>1.002545372599141</v>
+        <v>1.004975866444715</v>
       </c>
       <c r="I9">
-        <v>0.9988008917707335</v>
+        <v>1.004975866444715</v>
       </c>
       <c r="J9">
-        <v>1.004975866444715</v>
+        <v>0.9987986037887365</v>
       </c>
       <c r="K9">
         <v>0.9988064509610675</v>
       </c>
       <c r="L9">
-        <v>0.9987986037887363</v>
+        <v>0.9987986037887365</v>
       </c>
       <c r="M9">
-        <v>1.001887235116725</v>
+        <v>1.001887235116726</v>
       </c>
       <c r="N9">
-        <v>1.001887235116725</v>
+        <v>1.001887235116726</v>
       </c>
       <c r="O9">
         <v>1.002106614277531</v>
       </c>
       <c r="P9">
-        <v>1.000860307064839</v>
+        <v>1.00086030706484</v>
       </c>
       <c r="Q9">
         <v>1.000860307064839</v>
@@ -1160,7 +1052,7 @@
         <v>1.000173660450754</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9971462921552766</v>
+        <v>0.9973374304726209</v>
       </c>
       <c r="D10">
-        <v>1.011136768289456</v>
+        <v>0.9938888198592681</v>
       </c>
       <c r="E10">
-        <v>0.9974160880239042</v>
+        <v>1.005621520369852</v>
       </c>
       <c r="F10">
         <v>0.9971462921552766</v>
       </c>
       <c r="G10">
-        <v>0.9938888198592684</v>
+        <v>0.9971462921552766</v>
       </c>
       <c r="H10">
-        <v>1.005621520369852</v>
+        <v>1.011136768289456</v>
       </c>
       <c r="I10">
-        <v>0.9973374304726209</v>
+        <v>1.011136768289456</v>
       </c>
       <c r="J10">
-        <v>1.011136768289456</v>
+        <v>0.9974160880239042</v>
       </c>
       <c r="K10">
         <v>0.9971462921552766</v>
@@ -1222,7 +1114,7 @@
         <v>1.000424486528397</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9959961527168397</v>
+        <v>0.9957893867517393</v>
       </c>
       <c r="D11">
-        <v>1.017438526344134</v>
+        <v>0.9897196394234706</v>
       </c>
       <c r="E11">
-        <v>0.995704298614741</v>
+        <v>1.008932425425232</v>
       </c>
       <c r="F11">
         <v>0.9959961527168397</v>
       </c>
       <c r="G11">
-        <v>0.989719639423471</v>
+        <v>0.9959961527168397</v>
       </c>
       <c r="H11">
-        <v>1.008932425425231</v>
+        <v>1.017438526344134</v>
       </c>
       <c r="I11">
-        <v>0.9957893867517393</v>
+        <v>1.017438526344134</v>
       </c>
       <c r="J11">
-        <v>1.017438526344134</v>
+        <v>0.995704298614741</v>
       </c>
       <c r="K11">
         <v>0.9959961527168397</v>
@@ -1284,7 +1176,7 @@
         <v>1.000596738212693</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.149037622560001</v>
+        <v>1.035071447918576</v>
       </c>
       <c r="D12">
-        <v>0.8204048001973049</v>
+        <v>0.9443252807997772</v>
       </c>
       <c r="E12">
-        <v>0.9881717888424015</v>
+        <v>0.9350393378495424</v>
       </c>
       <c r="F12">
         <v>1.149037622560001</v>
       </c>
       <c r="G12">
-        <v>0.9443252807997771</v>
+        <v>1.149037622560001</v>
       </c>
       <c r="H12">
-        <v>0.9350393378495425</v>
+        <v>0.8204048001973048</v>
       </c>
       <c r="I12">
-        <v>1.035071447918575</v>
+        <v>0.8204048001973048</v>
       </c>
       <c r="J12">
-        <v>0.8204048001973049</v>
+        <v>0.9881717888424015</v>
       </c>
       <c r="K12">
         <v>1.149037622560001</v>
@@ -1328,7 +1220,7 @@
         <v>0.9042882945198532</v>
       </c>
       <c r="O12">
-        <v>0.9145386422964163</v>
+        <v>0.9145386422964162</v>
       </c>
       <c r="P12">
         <v>0.9858714038665694</v>
@@ -1343,10 +1235,10 @@
         <v>1.026662958539927</v>
       </c>
       <c r="T12">
-        <v>0.9786750463612672</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.9786750463612671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.954184354519098</v>
+        <v>1.004371796744131</v>
       </c>
       <c r="D13">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="E13">
+        <v>0.9864557617646038</v>
+      </c>
+      <c r="F13">
+        <v>0.9541843545190981</v>
+      </c>
+      <c r="G13">
+        <v>0.9541843545190981</v>
+      </c>
+      <c r="H13">
         <v>0.9979665529146311</v>
       </c>
-      <c r="E13">
+      <c r="I13">
+        <v>0.9979665529146311</v>
+      </c>
+      <c r="J13">
         <v>1.025025072477704</v>
       </c>
-      <c r="F13">
-        <v>0.954184354519098</v>
-      </c>
-      <c r="G13">
-        <v>1.071988105605746</v>
-      </c>
-      <c r="H13">
-        <v>0.9864557617646039</v>
-      </c>
-      <c r="I13">
-        <v>1.004371796744131</v>
-      </c>
-      <c r="J13">
-        <v>0.9979665529146311</v>
-      </c>
       <c r="K13">
-        <v>0.954184354519098</v>
+        <v>0.9541843545190981</v>
       </c>
       <c r="L13">
         <v>1.025025072477704</v>
@@ -1393,7 +1285,7 @@
         <v>1.003149129052313</v>
       </c>
       <c r="P13">
-        <v>0.9923919933038109</v>
+        <v>0.9923919933038111</v>
       </c>
       <c r="Q13">
         <v>0.9923919933038109</v>
@@ -1408,7 +1300,7 @@
         <v>1.006665274004319</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,31 +1308,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.014626936988383</v>
+        <v>1.062968929823972</v>
       </c>
       <c r="D14">
+        <v>1.220272599678329</v>
+      </c>
+      <c r="E14">
+        <v>0.8593655019656384</v>
+      </c>
+      <c r="F14">
+        <v>1.014626936988382</v>
+      </c>
+      <c r="G14">
+        <v>1.014626936988382</v>
+      </c>
+      <c r="H14">
         <v>0.7597461781066924</v>
       </c>
-      <c r="E14">
+      <c r="I14">
+        <v>0.7597461781066924</v>
+      </c>
+      <c r="J14">
         <v>1.082862769416514</v>
       </c>
-      <c r="F14">
-        <v>1.014626936988383</v>
-      </c>
-      <c r="G14">
-        <v>1.220272599678329</v>
-      </c>
-      <c r="H14">
-        <v>0.8593655019656384</v>
-      </c>
-      <c r="I14">
-        <v>1.062968929823972</v>
-      </c>
-      <c r="J14">
-        <v>0.7597461781066924</v>
-      </c>
       <c r="K14">
-        <v>1.014626936988383</v>
+        <v>1.014626936988382</v>
       </c>
       <c r="L14">
         <v>1.082862769416514</v>
@@ -1470,7 +1362,7 @@
         <v>0.9999738193299214</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.04145784451504</v>
+        <v>1.016634160194589</v>
       </c>
       <c r="D15">
-        <v>0.9315213570110724</v>
+        <v>1.028013016945666</v>
       </c>
       <c r="E15">
-        <v>1.00641866625033</v>
+        <v>0.9616110877432208</v>
       </c>
       <c r="F15">
         <v>1.04145784451504</v>
       </c>
       <c r="G15">
-        <v>1.028013016945667</v>
+        <v>1.04145784451504</v>
       </c>
       <c r="H15">
-        <v>0.9616110877432206</v>
+        <v>0.9315213570110724</v>
       </c>
       <c r="I15">
-        <v>1.01663416019459</v>
+        <v>0.9315213570110724</v>
       </c>
       <c r="J15">
-        <v>0.9315213570110724</v>
+        <v>1.00641866625033</v>
       </c>
       <c r="K15">
         <v>1.04145784451504</v>
@@ -1532,7 +1424,7 @@
         <v>0.9976093554433199</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9998086425456252</v>
+        <v>0.8886022784965262</v>
       </c>
       <c r="D16">
-        <v>1.000218921805034</v>
+        <v>0.6696413482665412</v>
       </c>
       <c r="E16">
-        <v>1.000027429106686</v>
+        <v>1.243724605149799</v>
       </c>
       <c r="F16">
-        <v>0.9998086425456252</v>
+        <v>0.9297825957969802</v>
       </c>
       <c r="G16">
-        <v>1.000130852984241</v>
+        <v>0.9297825957969802</v>
       </c>
       <c r="H16">
-        <v>1.000055527669781</v>
+        <v>1.440595319587076</v>
       </c>
       <c r="I16">
-        <v>0.9999636432605007</v>
+        <v>1.440595319587076</v>
       </c>
       <c r="J16">
-        <v>1.000218921805034</v>
+        <v>0.87165564828788</v>
       </c>
       <c r="K16">
-        <v>0.9998086425456252</v>
+        <v>0.9297825957969802</v>
       </c>
       <c r="L16">
-        <v>1.000027429106686</v>
+        <v>0.87165564828788</v>
       </c>
       <c r="M16">
-        <v>1.00012317545586</v>
+        <v>1.156125483937478</v>
       </c>
       <c r="N16">
-        <v>1.00012317545586</v>
+        <v>1.156125483937478</v>
       </c>
       <c r="O16">
-        <v>1.000100626193834</v>
+        <v>1.185325191008251</v>
       </c>
       <c r="P16">
-        <v>1.000018331152448</v>
+        <v>1.080677854557312</v>
       </c>
       <c r="Q16">
-        <v>1.000018331152448</v>
+        <v>1.080677854557312</v>
       </c>
       <c r="R16">
-        <v>0.9999659090007427</v>
+        <v>1.042954039867229</v>
       </c>
       <c r="S16">
-        <v>0.9999659090007427</v>
+        <v>1.042954039867229</v>
       </c>
       <c r="T16">
-        <v>1.000034169561978</v>
+        <v>1.007333632597467</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9995099779511485</v>
+        <v>0.9083141232624864</v>
       </c>
       <c r="D17">
-        <v>1.002124600210727</v>
+        <v>0.7408310584895604</v>
       </c>
       <c r="E17">
-        <v>0.9994753568180496</v>
+        <v>1.199637941480132</v>
       </c>
       <c r="F17">
-        <v>0.9995099779511485</v>
+        <v>0.9320556399129254</v>
       </c>
       <c r="G17">
-        <v>0.9987324966449947</v>
+        <v>0.9320556399129254</v>
       </c>
       <c r="H17">
-        <v>1.001095021055047</v>
+        <v>1.366164642443086</v>
       </c>
       <c r="I17">
-        <v>0.9994854507666864</v>
+        <v>1.366164642443086</v>
       </c>
       <c r="J17">
-        <v>1.002124600210727</v>
+        <v>0.898543953597868</v>
       </c>
       <c r="K17">
-        <v>0.9995099779511485</v>
+        <v>0.9320556399129254</v>
       </c>
       <c r="L17">
-        <v>0.9994753568180496</v>
+        <v>0.898543953597868</v>
       </c>
       <c r="M17">
-        <v>1.000799978514388</v>
+        <v>1.132354298020477</v>
       </c>
       <c r="N17">
-        <v>1.000799978514388</v>
+        <v>1.132354298020477</v>
       </c>
       <c r="O17">
-        <v>1.000898326027941</v>
+        <v>1.154782179173695</v>
       </c>
       <c r="P17">
-        <v>1.000369978326642</v>
+        <v>1.065588078651293</v>
       </c>
       <c r="Q17">
-        <v>1.000369978326642</v>
+        <v>1.065588078651293</v>
       </c>
       <c r="R17">
-        <v>1.000154978232769</v>
+        <v>1.032204968966701</v>
       </c>
       <c r="S17">
-        <v>1.000154978232769</v>
+        <v>1.032204968966701</v>
       </c>
       <c r="T17">
-        <v>1.000070483907776</v>
+        <v>1.00759122653101</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9987415694515315</v>
+        <v>0.9481185489238448</v>
       </c>
       <c r="D18">
-        <v>1.007005952661968</v>
+        <v>0.8836189906855616</v>
       </c>
       <c r="E18">
-        <v>0.9980305658504031</v>
+        <v>1.11069266226046</v>
       </c>
       <c r="F18">
-        <v>0.9987415694515315</v>
+        <v>0.9373902425338801</v>
       </c>
       <c r="G18">
-        <v>0.9949135583571347</v>
+        <v>0.9373902425338801</v>
       </c>
       <c r="H18">
-        <v>1.003853651955509</v>
+        <v>1.215591020511827</v>
       </c>
       <c r="I18">
-        <v>0.9982378551292579</v>
+        <v>1.215591020511827</v>
       </c>
       <c r="J18">
-        <v>1.007005952661968</v>
+        <v>0.9525334920540626</v>
       </c>
       <c r="K18">
-        <v>0.9987415694515315</v>
+        <v>0.9373902425338801</v>
       </c>
       <c r="L18">
-        <v>0.9980305658504031</v>
+        <v>0.9525334920540626</v>
       </c>
       <c r="M18">
-        <v>1.002518259256186</v>
+        <v>1.084062256282945</v>
       </c>
       <c r="N18">
-        <v>1.002518259256186</v>
+        <v>1.084062256282945</v>
       </c>
       <c r="O18">
-        <v>1.00296339015596</v>
+        <v>1.09293905827545</v>
       </c>
       <c r="P18">
-        <v>1.001259362654634</v>
+        <v>1.035171585033257</v>
       </c>
       <c r="Q18">
-        <v>1.001259362654634</v>
+        <v>1.035171585033257</v>
       </c>
       <c r="R18">
-        <v>1.000629914353859</v>
+        <v>1.010726249408413</v>
       </c>
       <c r="S18">
-        <v>1.000629914353859</v>
+        <v>1.010726249408413</v>
       </c>
       <c r="T18">
-        <v>1.000130525567634</v>
+        <v>1.007990826161606</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9976714423757398</v>
+        <v>0.9425806169384622</v>
       </c>
       <c r="D19">
+        <v>0.8808639087707121</v>
+      </c>
+      <c r="E19">
+        <v>1.120523794944008</v>
+      </c>
+      <c r="F19">
+        <v>0.9277992692925235</v>
+      </c>
+      <c r="G19">
+        <v>0.9277992692925235</v>
+      </c>
+      <c r="H19">
+        <v>1.242576551248172</v>
+      </c>
+      <c r="I19">
+        <v>1.242576551248172</v>
+      </c>
+      <c r="J19">
+        <v>0.948663484948751</v>
+      </c>
+      <c r="K19">
+        <v>0.9277992692925235</v>
+      </c>
+      <c r="L19">
+        <v>0.948663484948751</v>
+      </c>
+      <c r="M19">
+        <v>1.095620018098461</v>
+      </c>
+      <c r="N19">
+        <v>1.095620018098461</v>
+      </c>
+      <c r="O19">
+        <v>1.103921277046977</v>
+      </c>
+      <c r="P19">
+        <v>1.039679768496482</v>
+      </c>
+      <c r="Q19">
+        <v>1.039679768496482</v>
+      </c>
+      <c r="R19">
+        <v>1.011709643695492</v>
+      </c>
+      <c r="S19">
+        <v>1.011709643695492</v>
+      </c>
+      <c r="T19">
+        <v>1.010501271023771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999636432605004</v>
+      </c>
+      <c r="D20">
+        <v>1.000130852984241</v>
+      </c>
+      <c r="E20">
+        <v>1.000055527669782</v>
+      </c>
+      <c r="F20">
+        <v>0.9998086425456251</v>
+      </c>
+      <c r="G20">
+        <v>0.9998086425456251</v>
+      </c>
+      <c r="H20">
+        <v>1.000218921805035</v>
+      </c>
+      <c r="I20">
+        <v>1.000218921805035</v>
+      </c>
+      <c r="J20">
+        <v>1.000027429106686</v>
+      </c>
+      <c r="K20">
+        <v>0.9998086425456251</v>
+      </c>
+      <c r="L20">
+        <v>1.000027429106686</v>
+      </c>
+      <c r="M20">
+        <v>1.00012317545586</v>
+      </c>
+      <c r="N20">
+        <v>1.00012317545586</v>
+      </c>
+      <c r="O20">
+        <v>1.000100626193834</v>
+      </c>
+      <c r="P20">
+        <v>1.000018331152448</v>
+      </c>
+      <c r="Q20">
+        <v>1.000018331152448</v>
+      </c>
+      <c r="R20">
+        <v>0.9999659090007426</v>
+      </c>
+      <c r="S20">
+        <v>0.9999659090007426</v>
+      </c>
+      <c r="T20">
+        <v>1.000034169561978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9994854507666864</v>
+      </c>
+      <c r="D21">
+        <v>0.9987324966449947</v>
+      </c>
+      <c r="E21">
+        <v>1.001095021055047</v>
+      </c>
+      <c r="F21">
+        <v>0.9995099779511485</v>
+      </c>
+      <c r="G21">
+        <v>0.9995099779511485</v>
+      </c>
+      <c r="H21">
+        <v>1.002124600210727</v>
+      </c>
+      <c r="I21">
+        <v>1.002124600210727</v>
+      </c>
+      <c r="J21">
+        <v>0.9994753568180496</v>
+      </c>
+      <c r="K21">
+        <v>0.9995099779511485</v>
+      </c>
+      <c r="L21">
+        <v>0.9994753568180496</v>
+      </c>
+      <c r="M21">
+        <v>1.000799978514388</v>
+      </c>
+      <c r="N21">
+        <v>1.000799978514388</v>
+      </c>
+      <c r="O21">
+        <v>1.000898326027941</v>
+      </c>
+      <c r="P21">
+        <v>1.000369978326642</v>
+      </c>
+      <c r="Q21">
+        <v>1.000369978326642</v>
+      </c>
+      <c r="R21">
+        <v>1.000154978232768</v>
+      </c>
+      <c r="S21">
+        <v>1.000154978232768</v>
+      </c>
+      <c r="T21">
+        <v>1.000070483907775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9982378551292579</v>
+      </c>
+      <c r="D22">
+        <v>0.9949135583571349</v>
+      </c>
+      <c r="E22">
+        <v>1.003853651955509</v>
+      </c>
+      <c r="F22">
+        <v>0.9987415694515315</v>
+      </c>
+      <c r="G22">
+        <v>0.9987415694515315</v>
+      </c>
+      <c r="H22">
+        <v>1.007005952661968</v>
+      </c>
+      <c r="I22">
+        <v>1.007005952661968</v>
+      </c>
+      <c r="J22">
+        <v>0.9980305658504026</v>
+      </c>
+      <c r="K22">
+        <v>0.9987415694515315</v>
+      </c>
+      <c r="L22">
+        <v>0.9980305658504026</v>
+      </c>
+      <c r="M22">
+        <v>1.002518259256185</v>
+      </c>
+      <c r="N22">
+        <v>1.002518259256185</v>
+      </c>
+      <c r="O22">
+        <v>1.00296339015596</v>
+      </c>
+      <c r="P22">
+        <v>1.001259362654634</v>
+      </c>
+      <c r="Q22">
+        <v>1.001259362654634</v>
+      </c>
+      <c r="R22">
+        <v>1.000629914353858</v>
+      </c>
+      <c r="S22">
+        <v>1.000629914353858</v>
+      </c>
+      <c r="T22">
+        <v>1.000130525567634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.995896060417205</v>
+      </c>
+      <c r="D23">
+        <v>0.9874978507761837</v>
+      </c>
+      <c r="E23">
+        <v>1.009004604474305</v>
+      </c>
+      <c r="F23">
+        <v>0.99767144237574</v>
+      </c>
+      <c r="G23">
+        <v>0.99767144237574</v>
+      </c>
+      <c r="H23">
         <v>1.016146812424946</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>1.016146812424946</v>
+      </c>
+      <c r="J23">
         <v>0.9951654438153719</v>
       </c>
-      <c r="F19">
-        <v>0.9976714423757398</v>
-      </c>
-      <c r="G19">
-        <v>0.9874978507761837</v>
-      </c>
-      <c r="H19">
-        <v>1.009004604474305</v>
-      </c>
-      <c r="I19">
-        <v>0.9958960604172049</v>
-      </c>
-      <c r="J19">
-        <v>1.016146812424946</v>
-      </c>
-      <c r="K19">
-        <v>0.9976714423757398</v>
-      </c>
-      <c r="L19">
+      <c r="K23">
+        <v>0.99767144237574</v>
+      </c>
+      <c r="L23">
         <v>0.9951654438153719</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.005656128120159</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.005656128120159</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.006772286904874</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.002994566205353</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.002994566205353</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.00166378524795</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.00166378524795</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000230369047292</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/ShearF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9942888429955804</v>
+        <v>0.9391599488544725</v>
       </c>
       <c r="D3">
-        <v>0.9828372319867861</v>
+        <v>0.8651901928314049</v>
       </c>
       <c r="E3">
-        <v>1.012481696977369</v>
+        <v>1.129378701974065</v>
       </c>
       <c r="F3">
-        <v>0.9966990156003565</v>
+        <v>0.9263837395389045</v>
       </c>
       <c r="G3">
-        <v>0.9966990156003565</v>
+        <v>0.9263837395389045</v>
       </c>
       <c r="H3">
-        <v>1.022553429869491</v>
+        <v>1.253638470670028</v>
       </c>
       <c r="I3">
-        <v>1.022553429869491</v>
+        <v>1.253638470670028</v>
       </c>
       <c r="J3">
-        <v>0.9932970024644286</v>
+        <v>0.9444176489193069</v>
       </c>
       <c r="K3">
-        <v>0.9966990156003565</v>
+        <v>0.9263837395389045</v>
       </c>
       <c r="L3">
-        <v>0.9932970024644286</v>
+        <v>0.9444176489193069</v>
       </c>
       <c r="M3">
-        <v>1.00792521616696</v>
+        <v>1.099028059794667</v>
       </c>
       <c r="N3">
-        <v>1.00792521616696</v>
+        <v>1.099028059794667</v>
       </c>
       <c r="O3">
-        <v>1.009444043103763</v>
+        <v>1.109144940521133</v>
       </c>
       <c r="P3">
-        <v>1.004183149311425</v>
+        <v>1.041479953042747</v>
       </c>
       <c r="Q3">
-        <v>1.004183149311425</v>
+        <v>1.041479953042746</v>
       </c>
       <c r="R3">
-        <v>1.002312115883658</v>
+        <v>1.012705899666786</v>
       </c>
       <c r="S3">
-        <v>1.002312115883658</v>
+        <v>1.012705899666786</v>
       </c>
       <c r="T3">
-        <v>1.000359536649002</v>
+        <v>1.00969478379803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9889876958284327</v>
+        <v>0.9438879648863195</v>
       </c>
       <c r="D4">
-        <v>0.9668497590159907</v>
+        <v>0.8754025234327217</v>
       </c>
       <c r="E4">
-        <v>1.024104766916539</v>
+        <v>1.11948474275344</v>
       </c>
       <c r="F4">
-        <v>0.9935509379976036</v>
+        <v>0.9317911695033452</v>
       </c>
       <c r="G4">
-        <v>0.9935509379976036</v>
+        <v>0.9317911695033452</v>
       </c>
       <c r="H4">
-        <v>1.043443850611905</v>
+        <v>1.233680866885009</v>
       </c>
       <c r="I4">
-        <v>1.043443850611905</v>
+        <v>1.233680866885009</v>
       </c>
       <c r="J4">
-        <v>0.9871098179442374</v>
+        <v>0.9488660706149843</v>
       </c>
       <c r="K4">
-        <v>0.9935509379976036</v>
+        <v>0.9317911695033452</v>
       </c>
       <c r="L4">
-        <v>0.9871098179442374</v>
+        <v>0.9488660706149843</v>
       </c>
       <c r="M4">
-        <v>1.015276834278071</v>
+        <v>1.091273468749997</v>
       </c>
       <c r="N4">
-        <v>1.015276834278071</v>
+        <v>1.091273468749997</v>
       </c>
       <c r="O4">
-        <v>1.018219478490894</v>
+        <v>1.100677226751145</v>
       </c>
       <c r="P4">
-        <v>1.008034868851249</v>
+        <v>1.038112702334446</v>
       </c>
       <c r="Q4">
-        <v>1.008034868851249</v>
+        <v>1.038112702334446</v>
       </c>
       <c r="R4">
-        <v>1.004413886137837</v>
+        <v>1.011532319126671</v>
       </c>
       <c r="S4">
-        <v>1.004413886137837</v>
+        <v>1.011532319126671</v>
       </c>
       <c r="T4">
-        <v>1.000674471385784</v>
+        <v>1.008852223012637</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9788521201062682</v>
+        <v>0.9302244916981141</v>
       </c>
       <c r="D5">
-        <v>0.9368783764192616</v>
+        <v>0.8458432120485169</v>
       </c>
       <c r="E5">
-        <v>1.046188591028678</v>
+        <v>1.148075552560643</v>
       </c>
       <c r="F5">
-        <v>0.9874229271354172</v>
+        <v>0.9162187946630715</v>
       </c>
       <c r="G5">
-        <v>0.9874229271354172</v>
+        <v>0.9162187946630715</v>
       </c>
       <c r="H5">
-        <v>1.083632723005161</v>
+        <v>1.291354717412399</v>
       </c>
       <c r="I5">
-        <v>1.083632723005161</v>
+        <v>1.291354717412399</v>
       </c>
       <c r="J5">
-        <v>0.9753250368868929</v>
+        <v>0.9359881610242599</v>
       </c>
       <c r="K5">
-        <v>0.9874229271354172</v>
+        <v>0.9162187946630715</v>
       </c>
       <c r="L5">
-        <v>0.9753250368868929</v>
+        <v>0.9359881610242599</v>
       </c>
       <c r="M5">
-        <v>1.029478879946027</v>
+        <v>1.113671439218329</v>
       </c>
       <c r="N5">
-        <v>1.029478879946027</v>
+        <v>1.113671439218329</v>
       </c>
       <c r="O5">
-        <v>1.035048783640244</v>
+        <v>1.125139476999101</v>
       </c>
       <c r="P5">
-        <v>1.015460229009157</v>
+        <v>1.047853891033243</v>
       </c>
       <c r="Q5">
-        <v>1.015460229009157</v>
+        <v>1.047853891033243</v>
       </c>
       <c r="R5">
-        <v>1.008450903540722</v>
+        <v>1.0149451169407</v>
       </c>
       <c r="S5">
-        <v>1.008450903540722</v>
+        <v>1.0149451169407</v>
       </c>
       <c r="T5">
-        <v>1.001383295763613</v>
+        <v>1.011284154901167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9689479552853938</v>
+        <v>0.9219332901136363</v>
       </c>
       <c r="D6">
-        <v>0.9076719595928502</v>
+        <v>0.8278352930681824</v>
       </c>
       <c r="E6">
-        <v>1.067761399800366</v>
+        <v>1.165422330170454</v>
       </c>
       <c r="F6">
-        <v>0.9814221719476222</v>
+        <v>0.9068518998295455</v>
       </c>
       <c r="G6">
-        <v>0.9814221719476222</v>
+        <v>0.9068518998295455</v>
       </c>
       <c r="H6">
-        <v>1.122815994816953</v>
+        <v>1.326349769318181</v>
       </c>
       <c r="I6">
-        <v>1.122815994816953</v>
+        <v>1.326349769318181</v>
       </c>
       <c r="J6">
-        <v>0.9638145395626547</v>
+        <v>0.9281396325000006</v>
       </c>
       <c r="K6">
-        <v>0.9814221719476222</v>
+        <v>0.9068518998295455</v>
       </c>
       <c r="L6">
-        <v>0.9638145395626547</v>
+        <v>0.9281396325000006</v>
       </c>
       <c r="M6">
-        <v>1.043315267189804</v>
+        <v>1.127244700909091</v>
       </c>
       <c r="N6">
-        <v>1.043315267189804</v>
+        <v>1.127244700909091</v>
       </c>
       <c r="O6">
-        <v>1.051463978059991</v>
+        <v>1.139970577329545</v>
       </c>
       <c r="P6">
-        <v>1.02268423544241</v>
+        <v>1.053780433882576</v>
       </c>
       <c r="Q6">
-        <v>1.02268423544241</v>
+        <v>1.053780433882576</v>
       </c>
       <c r="R6">
-        <v>1.012368719568713</v>
+        <v>1.017048300369318</v>
       </c>
       <c r="S6">
-        <v>1.012368719568713</v>
+        <v>1.017048300369318</v>
       </c>
       <c r="T6">
-        <v>1.002072336834307</v>
+        <v>1.012755369166667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9996081709337705</v>
+        <v>1.048296035073752</v>
       </c>
       <c r="D7">
-        <v>0.9991556692504916</v>
+        <v>1.23056091841843</v>
       </c>
       <c r="E7">
-        <v>1.000823695813079</v>
+        <v>0.8824324882228929</v>
       </c>
       <c r="F7">
-        <v>0.9995348953821251</v>
+        <v>0.9820276938055612</v>
       </c>
       <c r="G7">
-        <v>0.9995348953821251</v>
+        <v>0.9820276938055612</v>
       </c>
       <c r="H7">
-        <v>1.001651609949274</v>
+        <v>0.8366728151451556</v>
       </c>
       <c r="I7">
-        <v>1.001651609949274</v>
+        <v>0.8366728151451556</v>
       </c>
       <c r="J7">
-        <v>0.9996383248620656</v>
+        <v>1.075566964579037</v>
       </c>
       <c r="K7">
-        <v>0.9995348953821251</v>
+        <v>0.9820276938055612</v>
       </c>
       <c r="L7">
-        <v>0.9996383248620656</v>
+        <v>1.075566964579037</v>
       </c>
       <c r="M7">
-        <v>1.00064496740567</v>
+        <v>0.9561198898620964</v>
       </c>
       <c r="N7">
-        <v>1.00064496740567</v>
+        <v>0.9561198898620964</v>
       </c>
       <c r="O7">
-        <v>1.000704543541473</v>
+        <v>0.9315574226490285</v>
       </c>
       <c r="P7">
-        <v>1.000274943397822</v>
+        <v>0.964755824509918</v>
       </c>
       <c r="Q7">
-        <v>1.000274943397822</v>
+        <v>0.964755824509918</v>
       </c>
       <c r="R7">
-        <v>1.000089931393897</v>
+        <v>0.9690737918338288</v>
       </c>
       <c r="S7">
-        <v>1.000089931393897</v>
+        <v>0.9690737918338288</v>
       </c>
       <c r="T7">
-        <v>1.000068727698468</v>
+        <v>1.009259485874138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9990891827181051</v>
+        <v>1.046940379947563</v>
       </c>
       <c r="D8">
-        <v>0.9979789229969366</v>
+        <v>1.226690916419899</v>
       </c>
       <c r="E8">
-        <v>1.001914445332499</v>
+        <v>0.8853566742153822</v>
       </c>
       <c r="F8">
-        <v>0.9989834532413758</v>
+        <v>0.9811535867659517</v>
       </c>
       <c r="G8">
-        <v>0.9989834532413758</v>
+        <v>0.9811535867659517</v>
       </c>
       <c r="H8">
-        <v>1.003827284212734</v>
+        <v>0.842144732987282</v>
       </c>
       <c r="I8">
-        <v>1.003827284212734</v>
+        <v>0.842144732987282</v>
       </c>
       <c r="J8">
-        <v>0.9991326921515199</v>
+        <v>1.07401314151932</v>
       </c>
       <c r="K8">
-        <v>0.9989834532413758</v>
+        <v>0.9811535867659517</v>
       </c>
       <c r="L8">
-        <v>0.9991326921515199</v>
+        <v>1.07401314151932</v>
       </c>
       <c r="M8">
-        <v>1.001479988182127</v>
+        <v>0.958078937253301</v>
       </c>
       <c r="N8">
-        <v>1.001479988182127</v>
+        <v>0.958078937253301</v>
       </c>
       <c r="O8">
-        <v>1.001624807232251</v>
+        <v>0.9338381829073281</v>
       </c>
       <c r="P8">
-        <v>1.000647809868543</v>
+        <v>0.9657704870908512</v>
       </c>
       <c r="Q8">
-        <v>1.000647809868543</v>
+        <v>0.9657704870908512</v>
       </c>
       <c r="R8">
-        <v>1.000231720711751</v>
+        <v>0.9696162620096264</v>
       </c>
       <c r="S8">
-        <v>1.000231720711751</v>
+        <v>0.9696162620096264</v>
       </c>
       <c r="T8">
-        <v>1.000154330108862</v>
+        <v>1.009383238642567</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9988008917707335</v>
+        <v>1.045602939162906</v>
       </c>
       <c r="D9">
-        <v>0.9971147771401324</v>
+        <v>1.223586584851144</v>
       </c>
       <c r="E9">
-        <v>1.002545372599141</v>
+        <v>0.8881779381994355</v>
       </c>
       <c r="F9">
-        <v>0.9988064509610675</v>
+        <v>0.9797656878193551</v>
       </c>
       <c r="G9">
-        <v>0.9988064509610675</v>
+        <v>0.9797656878193551</v>
       </c>
       <c r="H9">
-        <v>1.004975866444715</v>
+        <v>0.8477380145111735</v>
       </c>
       <c r="I9">
-        <v>1.004975866444715</v>
+        <v>0.8477380145111735</v>
       </c>
       <c r="J9">
-        <v>0.9987986037887365</v>
+        <v>1.072696465406518</v>
       </c>
       <c r="K9">
-        <v>0.9988064509610675</v>
+        <v>0.9797656878193551</v>
       </c>
       <c r="L9">
-        <v>0.9987986037887365</v>
+        <v>1.072696465406518</v>
       </c>
       <c r="M9">
-        <v>1.001887235116726</v>
+        <v>0.9602172399588458</v>
       </c>
       <c r="N9">
-        <v>1.001887235116726</v>
+        <v>0.9602172399588458</v>
       </c>
       <c r="O9">
-        <v>1.002106614277531</v>
+        <v>0.9362041393723756</v>
       </c>
       <c r="P9">
-        <v>1.00086030706484</v>
+        <v>0.9667333892456823</v>
       </c>
       <c r="Q9">
-        <v>1.000860307064839</v>
+        <v>0.9667333892456821</v>
       </c>
       <c r="R9">
-        <v>1.000346843038896</v>
+        <v>0.9699914638891004</v>
       </c>
       <c r="S9">
-        <v>1.000346843038896</v>
+        <v>0.9699914638891004</v>
       </c>
       <c r="T9">
-        <v>1.000173660450754</v>
+        <v>1.009594604991755</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9973374304726209</v>
+        <v>1.043932942948997</v>
       </c>
       <c r="D10">
-        <v>0.9938888198592681</v>
+        <v>1.216416291185778</v>
       </c>
       <c r="E10">
-        <v>1.005621520369852</v>
+        <v>0.8918820731408557</v>
       </c>
       <c r="F10">
-        <v>0.9971462921552766</v>
+        <v>0.9808697603350512</v>
       </c>
       <c r="G10">
-        <v>0.9971462921552766</v>
+        <v>0.9808697603350512</v>
       </c>
       <c r="H10">
-        <v>1.011136768289456</v>
+        <v>0.8539789562161321</v>
       </c>
       <c r="I10">
-        <v>1.011136768289456</v>
+        <v>0.8539789562161321</v>
       </c>
       <c r="J10">
-        <v>0.9974160880239042</v>
+        <v>1.069884877208224</v>
       </c>
       <c r="K10">
-        <v>0.9971462921552766</v>
+        <v>0.9808697603350512</v>
       </c>
       <c r="L10">
-        <v>0.9974160880239042</v>
+        <v>1.069884877208224</v>
       </c>
       <c r="M10">
-        <v>1.00427642815668</v>
+        <v>0.9619319167121783</v>
       </c>
       <c r="N10">
-        <v>1.00427642815668</v>
+        <v>0.9619319167121783</v>
       </c>
       <c r="O10">
-        <v>1.004724792227738</v>
+        <v>0.9385819688550706</v>
       </c>
       <c r="P10">
-        <v>1.001899716156212</v>
+        <v>0.9682445312531359</v>
       </c>
       <c r="Q10">
-        <v>1.001899716156212</v>
+        <v>0.9682445312531359</v>
       </c>
       <c r="R10">
-        <v>1.000711360155979</v>
+        <v>0.9714008385236147</v>
       </c>
       <c r="S10">
-        <v>1.000711360155979</v>
+        <v>0.9714008385236147</v>
       </c>
       <c r="T10">
-        <v>1.000424486528397</v>
+        <v>1.009494150172506</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9957893867517393</v>
+        <v>0.9941186258524725</v>
       </c>
       <c r="D11">
-        <v>0.9897196394234706</v>
+        <v>0.9822496769578909</v>
       </c>
       <c r="E11">
-        <v>1.008932425425232</v>
+        <v>1.012906285755233</v>
       </c>
       <c r="F11">
-        <v>0.9959961527168397</v>
+        <v>0.9964774849741852</v>
       </c>
       <c r="G11">
-        <v>0.9959961527168397</v>
+        <v>0.9964774849741852</v>
       </c>
       <c r="H11">
-        <v>1.017438526344134</v>
+        <v>1.023167026680087</v>
       </c>
       <c r="I11">
-        <v>1.017438526344134</v>
+        <v>1.023167026680087</v>
       </c>
       <c r="J11">
-        <v>0.995704298614741</v>
+        <v>0.9931479024256832</v>
       </c>
       <c r="K11">
-        <v>0.9959961527168397</v>
+        <v>0.9964774849741852</v>
       </c>
       <c r="L11">
-        <v>0.995704298614741</v>
+        <v>0.9931479024256832</v>
       </c>
       <c r="M11">
-        <v>1.006571412479438</v>
+        <v>1.008157464552885</v>
       </c>
       <c r="N11">
-        <v>1.006571412479438</v>
+        <v>1.008157464552885</v>
       </c>
       <c r="O11">
-        <v>1.007358416794702</v>
+        <v>1.009740404953668</v>
       </c>
       <c r="P11">
-        <v>1.003046325891905</v>
+        <v>1.004264138026652</v>
       </c>
       <c r="Q11">
-        <v>1.003046325891905</v>
+        <v>1.004264138026652</v>
       </c>
       <c r="R11">
-        <v>1.001283782598139</v>
+        <v>1.002317474763535</v>
       </c>
       <c r="S11">
-        <v>1.001283782598139</v>
+        <v>1.002317474763535</v>
       </c>
       <c r="T11">
-        <v>1.000596738212693</v>
+        <v>1.000344500440925</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.035071447918576</v>
+        <v>0.9974879474306249</v>
       </c>
       <c r="D12">
-        <v>0.9443252807997772</v>
+        <v>0.9928304518102532</v>
       </c>
       <c r="E12">
-        <v>0.9350393378495424</v>
+        <v>1.005427769653765</v>
       </c>
       <c r="F12">
-        <v>1.149037622560001</v>
+        <v>0.9983777488551803</v>
       </c>
       <c r="G12">
-        <v>1.149037622560001</v>
+        <v>0.9983777488551803</v>
       </c>
       <c r="H12">
-        <v>0.8204048001973048</v>
+        <v>1.010052272053367</v>
       </c>
       <c r="I12">
-        <v>0.8204048001973048</v>
+        <v>1.010052272053367</v>
       </c>
       <c r="J12">
-        <v>0.9881717888424015</v>
+        <v>0.9971217735015957</v>
       </c>
       <c r="K12">
-        <v>1.149037622560001</v>
+        <v>0.9983777488551803</v>
       </c>
       <c r="L12">
-        <v>0.9881717888424015</v>
+        <v>0.9971217735015957</v>
       </c>
       <c r="M12">
-        <v>0.9042882945198532</v>
+        <v>1.003587022777481</v>
       </c>
       <c r="N12">
-        <v>0.9042882945198532</v>
+        <v>1.003587022777481</v>
       </c>
       <c r="O12">
-        <v>0.9145386422964162</v>
+        <v>1.004200605069576</v>
       </c>
       <c r="P12">
-        <v>0.9858714038665694</v>
+        <v>1.001850598136714</v>
       </c>
       <c r="Q12">
-        <v>0.9858714038665694</v>
+        <v>1.001850598136714</v>
       </c>
       <c r="R12">
-        <v>1.026662958539927</v>
+        <v>1.000982385816331</v>
       </c>
       <c r="S12">
-        <v>1.026662958539927</v>
+        <v>1.000982385816331</v>
       </c>
       <c r="T12">
-        <v>0.9786750463612671</v>
+        <v>1.000216327217464</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.004371796744131</v>
+        <v>0.9920123155929638</v>
       </c>
       <c r="D13">
-        <v>1.071988105605746</v>
+        <v>0.9763028535879573</v>
       </c>
       <c r="E13">
-        <v>0.9864557617646038</v>
+        <v>1.017246958269691</v>
       </c>
       <c r="F13">
-        <v>0.9541843545190981</v>
+        <v>0.9958604524090332</v>
       </c>
       <c r="G13">
-        <v>0.9541843545190981</v>
+        <v>0.9958604524090332</v>
       </c>
       <c r="H13">
-        <v>0.9979665529146311</v>
+        <v>1.031804001551851</v>
       </c>
       <c r="I13">
-        <v>0.9979665529146311</v>
+        <v>1.031804001551851</v>
       </c>
       <c r="J13">
-        <v>1.025025072477704</v>
+        <v>0.9904287258347011</v>
       </c>
       <c r="K13">
-        <v>0.9541843545190981</v>
+        <v>0.9958604524090332</v>
       </c>
       <c r="L13">
-        <v>1.025025072477704</v>
+        <v>0.9904287258347011</v>
       </c>
       <c r="M13">
-        <v>1.011495812696168</v>
+        <v>1.011116363693276</v>
       </c>
       <c r="N13">
-        <v>1.011495812696168</v>
+        <v>1.011116363693276</v>
       </c>
       <c r="O13">
-        <v>1.003149129052313</v>
+        <v>1.013159895218748</v>
       </c>
       <c r="P13">
-        <v>0.9923919933038111</v>
+        <v>1.006031059931862</v>
       </c>
       <c r="Q13">
-        <v>0.9923919933038109</v>
+        <v>1.006031059931862</v>
       </c>
       <c r="R13">
-        <v>0.9828400836076328</v>
+        <v>1.003488408051155</v>
       </c>
       <c r="S13">
-        <v>0.9828400836076328</v>
+        <v>1.003488408051155</v>
       </c>
       <c r="T13">
-        <v>1.006665274004319</v>
+        <v>1.000609217874366</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.062968929823972</v>
+        <v>0.9840932347256253</v>
       </c>
       <c r="D14">
-        <v>1.220272599678329</v>
+        <v>0.9527037283661223</v>
       </c>
       <c r="E14">
-        <v>0.8593655019656384</v>
+        <v>1.034748831851515</v>
       </c>
       <c r="F14">
-        <v>1.014626936988382</v>
+        <v>0.9903102110235806</v>
       </c>
       <c r="G14">
-        <v>1.014626936988382</v>
+        <v>0.9903102110235806</v>
       </c>
       <c r="H14">
-        <v>0.7597461781066924</v>
+        <v>1.062945381214412</v>
       </c>
       <c r="I14">
-        <v>0.7597461781066924</v>
+        <v>1.062945381214412</v>
       </c>
       <c r="J14">
-        <v>1.082862769416514</v>
+        <v>0.9815348179738133</v>
       </c>
       <c r="K14">
-        <v>1.014626936988382</v>
+        <v>0.9903102110235806</v>
       </c>
       <c r="L14">
-        <v>1.082862769416514</v>
+        <v>0.9815348179738133</v>
       </c>
       <c r="M14">
-        <v>0.921304473761603</v>
+        <v>1.022240099594113</v>
       </c>
       <c r="N14">
-        <v>0.921304473761603</v>
+        <v>1.022240099594113</v>
       </c>
       <c r="O14">
-        <v>0.9006581498296148</v>
+        <v>1.026409677013247</v>
       </c>
       <c r="P14">
-        <v>0.9524119615038629</v>
+        <v>1.011596803403935</v>
       </c>
       <c r="Q14">
-        <v>0.9524119615038629</v>
+        <v>1.011596803403935</v>
       </c>
       <c r="R14">
-        <v>0.9679657053749928</v>
+        <v>1.006275155308846</v>
       </c>
       <c r="S14">
-        <v>0.9679657053749928</v>
+        <v>1.006275155308846</v>
       </c>
       <c r="T14">
-        <v>0.9999738193299214</v>
+        <v>1.001056034192511</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.016634160194589</v>
+        <v>0.9942888429955804</v>
       </c>
       <c r="D15">
-        <v>1.028013016945666</v>
+        <v>0.9828372319867861</v>
       </c>
       <c r="E15">
-        <v>0.9616110877432208</v>
+        <v>1.012481696977369</v>
       </c>
       <c r="F15">
-        <v>1.04145784451504</v>
+        <v>0.9966990156003565</v>
       </c>
       <c r="G15">
-        <v>1.04145784451504</v>
+        <v>0.9966990156003565</v>
       </c>
       <c r="H15">
-        <v>0.9315213570110724</v>
+        <v>1.022553429869491</v>
       </c>
       <c r="I15">
-        <v>0.9315213570110724</v>
+        <v>1.022553429869491</v>
       </c>
       <c r="J15">
-        <v>1.00641866625033</v>
+        <v>0.9932970024644286</v>
       </c>
       <c r="K15">
-        <v>1.04145784451504</v>
+        <v>0.9966990156003565</v>
       </c>
       <c r="L15">
-        <v>1.00641866625033</v>
+        <v>0.9932970024644286</v>
       </c>
       <c r="M15">
-        <v>0.9689700116307012</v>
+        <v>1.00792521616696</v>
       </c>
       <c r="N15">
-        <v>0.9689700116307012</v>
+        <v>1.00792521616696</v>
       </c>
       <c r="O15">
-        <v>0.966517037001541</v>
+        <v>1.009444043103763</v>
       </c>
       <c r="P15">
-        <v>0.9931326225921476</v>
+        <v>1.004183149311425</v>
       </c>
       <c r="Q15">
-        <v>0.9931326225921474</v>
+        <v>1.004183149311425</v>
       </c>
       <c r="R15">
-        <v>1.005213928072871</v>
+        <v>1.002312115883658</v>
       </c>
       <c r="S15">
-        <v>1.005213928072871</v>
+        <v>1.002312115883658</v>
       </c>
       <c r="T15">
-        <v>0.9976093554433199</v>
+        <v>1.000359536649002</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8886022784965262</v>
+        <v>0.9889876958284327</v>
       </c>
       <c r="D16">
-        <v>0.6696413482665412</v>
+        <v>0.9668497590159907</v>
       </c>
       <c r="E16">
-        <v>1.243724605149799</v>
+        <v>1.024104766916539</v>
       </c>
       <c r="F16">
-        <v>0.9297825957969802</v>
+        <v>0.9935509379976036</v>
       </c>
       <c r="G16">
-        <v>0.9297825957969802</v>
+        <v>0.9935509379976036</v>
       </c>
       <c r="H16">
-        <v>1.440595319587076</v>
+        <v>1.043443850611905</v>
       </c>
       <c r="I16">
-        <v>1.440595319587076</v>
+        <v>1.043443850611905</v>
       </c>
       <c r="J16">
-        <v>0.87165564828788</v>
+        <v>0.9871098179442374</v>
       </c>
       <c r="K16">
-        <v>0.9297825957969802</v>
+        <v>0.9935509379976036</v>
       </c>
       <c r="L16">
-        <v>0.87165564828788</v>
+        <v>0.9871098179442374</v>
       </c>
       <c r="M16">
-        <v>1.156125483937478</v>
+        <v>1.015276834278071</v>
       </c>
       <c r="N16">
-        <v>1.156125483937478</v>
+        <v>1.015276834278071</v>
       </c>
       <c r="O16">
-        <v>1.185325191008251</v>
+        <v>1.018219478490894</v>
       </c>
       <c r="P16">
-        <v>1.080677854557312</v>
+        <v>1.008034868851249</v>
       </c>
       <c r="Q16">
-        <v>1.080677854557312</v>
+        <v>1.008034868851249</v>
       </c>
       <c r="R16">
-        <v>1.042954039867229</v>
+        <v>1.004413886137837</v>
       </c>
       <c r="S16">
-        <v>1.042954039867229</v>
+        <v>1.004413886137837</v>
       </c>
       <c r="T16">
-        <v>1.007333632597467</v>
+        <v>1.000674471385784</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9083141232624864</v>
+        <v>0.9788521201062682</v>
       </c>
       <c r="D17">
-        <v>0.7408310584895604</v>
+        <v>0.9368783764192616</v>
       </c>
       <c r="E17">
-        <v>1.199637941480132</v>
+        <v>1.046188591028678</v>
       </c>
       <c r="F17">
-        <v>0.9320556399129254</v>
+        <v>0.9874229271354172</v>
       </c>
       <c r="G17">
-        <v>0.9320556399129254</v>
+        <v>0.9874229271354172</v>
       </c>
       <c r="H17">
-        <v>1.366164642443086</v>
+        <v>1.083632723005161</v>
       </c>
       <c r="I17">
-        <v>1.366164642443086</v>
+        <v>1.083632723005161</v>
       </c>
       <c r="J17">
-        <v>0.898543953597868</v>
+        <v>0.9753250368868929</v>
       </c>
       <c r="K17">
-        <v>0.9320556399129254</v>
+        <v>0.9874229271354172</v>
       </c>
       <c r="L17">
-        <v>0.898543953597868</v>
+        <v>0.9753250368868929</v>
       </c>
       <c r="M17">
-        <v>1.132354298020477</v>
+        <v>1.029478879946027</v>
       </c>
       <c r="N17">
-        <v>1.132354298020477</v>
+        <v>1.029478879946027</v>
       </c>
       <c r="O17">
-        <v>1.154782179173695</v>
+        <v>1.035048783640244</v>
       </c>
       <c r="P17">
-        <v>1.065588078651293</v>
+        <v>1.015460229009157</v>
       </c>
       <c r="Q17">
-        <v>1.065588078651293</v>
+        <v>1.015460229009157</v>
       </c>
       <c r="R17">
-        <v>1.032204968966701</v>
+        <v>1.008450903540722</v>
       </c>
       <c r="S17">
-        <v>1.032204968966701</v>
+        <v>1.008450903540722</v>
       </c>
       <c r="T17">
-        <v>1.00759122653101</v>
+        <v>1.001383295763613</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9481185489238448</v>
+        <v>0.9689479552853938</v>
       </c>
       <c r="D18">
-        <v>0.8836189906855616</v>
+        <v>0.9076719595928502</v>
       </c>
       <c r="E18">
-        <v>1.11069266226046</v>
+        <v>1.067761399800366</v>
       </c>
       <c r="F18">
-        <v>0.9373902425338801</v>
+        <v>0.9814221719476222</v>
       </c>
       <c r="G18">
-        <v>0.9373902425338801</v>
+        <v>0.9814221719476222</v>
       </c>
       <c r="H18">
-        <v>1.215591020511827</v>
+        <v>1.122815994816953</v>
       </c>
       <c r="I18">
-        <v>1.215591020511827</v>
+        <v>1.122815994816953</v>
       </c>
       <c r="J18">
-        <v>0.9525334920540626</v>
+        <v>0.9638145395626547</v>
       </c>
       <c r="K18">
-        <v>0.9373902425338801</v>
+        <v>0.9814221719476222</v>
       </c>
       <c r="L18">
-        <v>0.9525334920540626</v>
+        <v>0.9638145395626547</v>
       </c>
       <c r="M18">
-        <v>1.084062256282945</v>
+        <v>1.043315267189804</v>
       </c>
       <c r="N18">
-        <v>1.084062256282945</v>
+        <v>1.043315267189804</v>
       </c>
       <c r="O18">
-        <v>1.09293905827545</v>
+        <v>1.051463978059991</v>
       </c>
       <c r="P18">
-        <v>1.035171585033257</v>
+        <v>1.02268423544241</v>
       </c>
       <c r="Q18">
-        <v>1.035171585033257</v>
+        <v>1.02268423544241</v>
       </c>
       <c r="R18">
-        <v>1.010726249408413</v>
+        <v>1.012368719568713</v>
       </c>
       <c r="S18">
-        <v>1.010726249408413</v>
+        <v>1.012368719568713</v>
       </c>
       <c r="T18">
-        <v>1.007990826161606</v>
+        <v>1.002072336834307</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9425806169384622</v>
+        <v>0.9996081709337705</v>
       </c>
       <c r="D19">
-        <v>0.8808639087707121</v>
+        <v>0.9991556692504916</v>
       </c>
       <c r="E19">
-        <v>1.120523794944008</v>
+        <v>1.000823695813079</v>
       </c>
       <c r="F19">
-        <v>0.9277992692925235</v>
+        <v>0.9995348953821251</v>
       </c>
       <c r="G19">
-        <v>0.9277992692925235</v>
+        <v>0.9995348953821251</v>
       </c>
       <c r="H19">
-        <v>1.242576551248172</v>
+        <v>1.001651609949274</v>
       </c>
       <c r="I19">
-        <v>1.242576551248172</v>
+        <v>1.001651609949274</v>
       </c>
       <c r="J19">
-        <v>0.948663484948751</v>
+        <v>0.9996383248620656</v>
       </c>
       <c r="K19">
-        <v>0.9277992692925235</v>
+        <v>0.9995348953821251</v>
       </c>
       <c r="L19">
-        <v>0.948663484948751</v>
+        <v>0.9996383248620656</v>
       </c>
       <c r="M19">
-        <v>1.095620018098461</v>
+        <v>1.00064496740567</v>
       </c>
       <c r="N19">
-        <v>1.095620018098461</v>
+        <v>1.00064496740567</v>
       </c>
       <c r="O19">
-        <v>1.103921277046977</v>
+        <v>1.000704543541473</v>
       </c>
       <c r="P19">
-        <v>1.039679768496482</v>
+        <v>1.000274943397822</v>
       </c>
       <c r="Q19">
-        <v>1.039679768496482</v>
+        <v>1.000274943397822</v>
       </c>
       <c r="R19">
-        <v>1.011709643695492</v>
+        <v>1.000089931393897</v>
       </c>
       <c r="S19">
-        <v>1.011709643695492</v>
+        <v>1.000089931393897</v>
       </c>
       <c r="T19">
-        <v>1.010501271023771</v>
+        <v>1.000068727698468</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999636432605004</v>
+        <v>0.9990891827181051</v>
       </c>
       <c r="D20">
-        <v>1.000130852984241</v>
+        <v>0.9979789229969366</v>
       </c>
       <c r="E20">
-        <v>1.000055527669782</v>
+        <v>1.001914445332499</v>
       </c>
       <c r="F20">
-        <v>0.9998086425456251</v>
+        <v>0.9989834532413758</v>
       </c>
       <c r="G20">
-        <v>0.9998086425456251</v>
+        <v>0.9989834532413758</v>
       </c>
       <c r="H20">
-        <v>1.000218921805035</v>
+        <v>1.003827284212734</v>
       </c>
       <c r="I20">
-        <v>1.000218921805035</v>
+        <v>1.003827284212734</v>
       </c>
       <c r="J20">
-        <v>1.000027429106686</v>
+        <v>0.9991326921515199</v>
       </c>
       <c r="K20">
-        <v>0.9998086425456251</v>
+        <v>0.9989834532413758</v>
       </c>
       <c r="L20">
-        <v>1.000027429106686</v>
+        <v>0.9991326921515199</v>
       </c>
       <c r="M20">
-        <v>1.00012317545586</v>
+        <v>1.001479988182127</v>
       </c>
       <c r="N20">
-        <v>1.00012317545586</v>
+        <v>1.001479988182127</v>
       </c>
       <c r="O20">
-        <v>1.000100626193834</v>
+        <v>1.001624807232251</v>
       </c>
       <c r="P20">
-        <v>1.000018331152448</v>
+        <v>1.000647809868543</v>
       </c>
       <c r="Q20">
-        <v>1.000018331152448</v>
+        <v>1.000647809868543</v>
       </c>
       <c r="R20">
-        <v>0.9999659090007426</v>
+        <v>1.000231720711751</v>
       </c>
       <c r="S20">
-        <v>0.9999659090007426</v>
+        <v>1.000231720711751</v>
       </c>
       <c r="T20">
-        <v>1.000034169561978</v>
+        <v>1.000154330108862</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9994854507666864</v>
+        <v>0.9988008917707335</v>
       </c>
       <c r="D21">
-        <v>0.9987324966449947</v>
+        <v>0.9971147771401324</v>
       </c>
       <c r="E21">
-        <v>1.001095021055047</v>
+        <v>1.002545372599141</v>
       </c>
       <c r="F21">
-        <v>0.9995099779511485</v>
+        <v>0.9988064509610675</v>
       </c>
       <c r="G21">
-        <v>0.9995099779511485</v>
+        <v>0.9988064509610675</v>
       </c>
       <c r="H21">
-        <v>1.002124600210727</v>
+        <v>1.004975866444715</v>
       </c>
       <c r="I21">
-        <v>1.002124600210727</v>
+        <v>1.004975866444715</v>
       </c>
       <c r="J21">
-        <v>0.9994753568180496</v>
+        <v>0.9987986037887365</v>
       </c>
       <c r="K21">
-        <v>0.9995099779511485</v>
+        <v>0.9988064509610675</v>
       </c>
       <c r="L21">
-        <v>0.9994753568180496</v>
+        <v>0.9987986037887365</v>
       </c>
       <c r="M21">
-        <v>1.000799978514388</v>
+        <v>1.001887235116726</v>
       </c>
       <c r="N21">
-        <v>1.000799978514388</v>
+        <v>1.001887235116726</v>
       </c>
       <c r="O21">
-        <v>1.000898326027941</v>
+        <v>1.002106614277531</v>
       </c>
       <c r="P21">
-        <v>1.000369978326642</v>
+        <v>1.00086030706484</v>
       </c>
       <c r="Q21">
-        <v>1.000369978326642</v>
+        <v>1.000860307064839</v>
       </c>
       <c r="R21">
-        <v>1.000154978232768</v>
+        <v>1.000346843038896</v>
       </c>
       <c r="S21">
-        <v>1.000154978232768</v>
+        <v>1.000346843038896</v>
       </c>
       <c r="T21">
-        <v>1.000070483907775</v>
+        <v>1.000173660450754</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9982378551292579</v>
+        <v>0.9973374304726209</v>
       </c>
       <c r="D22">
-        <v>0.9949135583571349</v>
+        <v>0.9938888198592681</v>
       </c>
       <c r="E22">
-        <v>1.003853651955509</v>
+        <v>1.005621520369852</v>
       </c>
       <c r="F22">
-        <v>0.9987415694515315</v>
+        <v>0.9971462921552766</v>
       </c>
       <c r="G22">
-        <v>0.9987415694515315</v>
+        <v>0.9971462921552766</v>
       </c>
       <c r="H22">
-        <v>1.007005952661968</v>
+        <v>1.011136768289456</v>
       </c>
       <c r="I22">
-        <v>1.007005952661968</v>
+        <v>1.011136768289456</v>
       </c>
       <c r="J22">
-        <v>0.9980305658504026</v>
+        <v>0.9974160880239042</v>
       </c>
       <c r="K22">
-        <v>0.9987415694515315</v>
+        <v>0.9971462921552766</v>
       </c>
       <c r="L22">
-        <v>0.9980305658504026</v>
+        <v>0.9974160880239042</v>
       </c>
       <c r="M22">
-        <v>1.002518259256185</v>
+        <v>1.00427642815668</v>
       </c>
       <c r="N22">
-        <v>1.002518259256185</v>
+        <v>1.00427642815668</v>
       </c>
       <c r="O22">
-        <v>1.00296339015596</v>
+        <v>1.004724792227738</v>
       </c>
       <c r="P22">
-        <v>1.001259362654634</v>
+        <v>1.001899716156212</v>
       </c>
       <c r="Q22">
-        <v>1.001259362654634</v>
+        <v>1.001899716156212</v>
       </c>
       <c r="R22">
-        <v>1.000629914353858</v>
+        <v>1.000711360155979</v>
       </c>
       <c r="S22">
-        <v>1.000629914353858</v>
+        <v>1.000711360155979</v>
       </c>
       <c r="T22">
-        <v>1.000130525567634</v>
+        <v>1.000424486528397</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9957893867517393</v>
+      </c>
+      <c r="D23">
+        <v>0.9897196394234706</v>
+      </c>
+      <c r="E23">
+        <v>1.008932425425232</v>
+      </c>
+      <c r="F23">
+        <v>0.9959961527168397</v>
+      </c>
+      <c r="G23">
+        <v>0.9959961527168397</v>
+      </c>
+      <c r="H23">
+        <v>1.017438526344134</v>
+      </c>
+      <c r="I23">
+        <v>1.017438526344134</v>
+      </c>
+      <c r="J23">
+        <v>0.995704298614741</v>
+      </c>
+      <c r="K23">
+        <v>0.9959961527168397</v>
+      </c>
+      <c r="L23">
+        <v>0.995704298614741</v>
+      </c>
+      <c r="M23">
+        <v>1.006571412479438</v>
+      </c>
+      <c r="N23">
+        <v>1.006571412479438</v>
+      </c>
+      <c r="O23">
+        <v>1.007358416794702</v>
+      </c>
+      <c r="P23">
+        <v>1.003046325891905</v>
+      </c>
+      <c r="Q23">
+        <v>1.003046325891905</v>
+      </c>
+      <c r="R23">
+        <v>1.001283782598139</v>
+      </c>
+      <c r="S23">
+        <v>1.001283782598139</v>
+      </c>
+      <c r="T23">
+        <v>1.000596738212693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.035071447918576</v>
+      </c>
+      <c r="D24">
+        <v>0.9443252807997772</v>
+      </c>
+      <c r="E24">
+        <v>0.9350393378495424</v>
+      </c>
+      <c r="F24">
+        <v>1.149037622560001</v>
+      </c>
+      <c r="G24">
+        <v>1.149037622560001</v>
+      </c>
+      <c r="H24">
+        <v>0.8204048001973048</v>
+      </c>
+      <c r="I24">
+        <v>0.8204048001973048</v>
+      </c>
+      <c r="J24">
+        <v>0.9881717888424015</v>
+      </c>
+      <c r="K24">
+        <v>1.149037622560001</v>
+      </c>
+      <c r="L24">
+        <v>0.9881717888424015</v>
+      </c>
+      <c r="M24">
+        <v>0.9042882945198532</v>
+      </c>
+      <c r="N24">
+        <v>0.9042882945198532</v>
+      </c>
+      <c r="O24">
+        <v>0.9145386422964162</v>
+      </c>
+      <c r="P24">
+        <v>0.9858714038665694</v>
+      </c>
+      <c r="Q24">
+        <v>0.9858714038665694</v>
+      </c>
+      <c r="R24">
+        <v>1.026662958539927</v>
+      </c>
+      <c r="S24">
+        <v>1.026662958539927</v>
+      </c>
+      <c r="T24">
+        <v>0.9786750463612671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.004371796744131</v>
+      </c>
+      <c r="D25">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="E25">
+        <v>0.9864557617646038</v>
+      </c>
+      <c r="F25">
+        <v>0.9541843545190981</v>
+      </c>
+      <c r="G25">
+        <v>0.9541843545190981</v>
+      </c>
+      <c r="H25">
+        <v>0.9979665529146311</v>
+      </c>
+      <c r="I25">
+        <v>0.9979665529146311</v>
+      </c>
+      <c r="J25">
+        <v>1.025025072477704</v>
+      </c>
+      <c r="K25">
+        <v>0.9541843545190981</v>
+      </c>
+      <c r="L25">
+        <v>1.025025072477704</v>
+      </c>
+      <c r="M25">
+        <v>1.011495812696168</v>
+      </c>
+      <c r="N25">
+        <v>1.011495812696168</v>
+      </c>
+      <c r="O25">
+        <v>1.003149129052313</v>
+      </c>
+      <c r="P25">
+        <v>0.9923919933038111</v>
+      </c>
+      <c r="Q25">
+        <v>0.9923919933038109</v>
+      </c>
+      <c r="R25">
+        <v>0.9828400836076328</v>
+      </c>
+      <c r="S25">
+        <v>0.9828400836076328</v>
+      </c>
+      <c r="T25">
+        <v>1.006665274004319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.062968929823972</v>
+      </c>
+      <c r="D26">
+        <v>1.220272599678329</v>
+      </c>
+      <c r="E26">
+        <v>0.8593655019656384</v>
+      </c>
+      <c r="F26">
+        <v>1.014626936988382</v>
+      </c>
+      <c r="G26">
+        <v>1.014626936988382</v>
+      </c>
+      <c r="H26">
+        <v>0.7597461781066924</v>
+      </c>
+      <c r="I26">
+        <v>0.7597461781066924</v>
+      </c>
+      <c r="J26">
+        <v>1.082862769416514</v>
+      </c>
+      <c r="K26">
+        <v>1.014626936988382</v>
+      </c>
+      <c r="L26">
+        <v>1.082862769416514</v>
+      </c>
+      <c r="M26">
+        <v>0.921304473761603</v>
+      </c>
+      <c r="N26">
+        <v>0.921304473761603</v>
+      </c>
+      <c r="O26">
+        <v>0.9006581498296148</v>
+      </c>
+      <c r="P26">
+        <v>0.9524119615038629</v>
+      </c>
+      <c r="Q26">
+        <v>0.9524119615038629</v>
+      </c>
+      <c r="R26">
+        <v>0.9679657053749928</v>
+      </c>
+      <c r="S26">
+        <v>0.9679657053749928</v>
+      </c>
+      <c r="T26">
+        <v>0.9999738193299214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.016634160194589</v>
+      </c>
+      <c r="D27">
+        <v>1.028013016945666</v>
+      </c>
+      <c r="E27">
+        <v>0.9616110877432208</v>
+      </c>
+      <c r="F27">
+        <v>1.04145784451504</v>
+      </c>
+      <c r="G27">
+        <v>1.04145784451504</v>
+      </c>
+      <c r="H27">
+        <v>0.9315213570110724</v>
+      </c>
+      <c r="I27">
+        <v>0.9315213570110724</v>
+      </c>
+      <c r="J27">
+        <v>1.00641866625033</v>
+      </c>
+      <c r="K27">
+        <v>1.04145784451504</v>
+      </c>
+      <c r="L27">
+        <v>1.00641866625033</v>
+      </c>
+      <c r="M27">
+        <v>0.9689700116307012</v>
+      </c>
+      <c r="N27">
+        <v>0.9689700116307012</v>
+      </c>
+      <c r="O27">
+        <v>0.966517037001541</v>
+      </c>
+      <c r="P27">
+        <v>0.9931326225921476</v>
+      </c>
+      <c r="Q27">
+        <v>0.9931326225921474</v>
+      </c>
+      <c r="R27">
+        <v>1.005213928072871</v>
+      </c>
+      <c r="S27">
+        <v>1.005213928072871</v>
+      </c>
+      <c r="T27">
+        <v>0.9976093554433199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8886022784965262</v>
+      </c>
+      <c r="D28">
+        <v>0.6696413482665412</v>
+      </c>
+      <c r="E28">
+        <v>1.243724605149799</v>
+      </c>
+      <c r="F28">
+        <v>0.9297825957969802</v>
+      </c>
+      <c r="G28">
+        <v>0.9297825957969802</v>
+      </c>
+      <c r="H28">
+        <v>1.440595319587076</v>
+      </c>
+      <c r="I28">
+        <v>1.440595319587076</v>
+      </c>
+      <c r="J28">
+        <v>0.87165564828788</v>
+      </c>
+      <c r="K28">
+        <v>0.9297825957969802</v>
+      </c>
+      <c r="L28">
+        <v>0.87165564828788</v>
+      </c>
+      <c r="M28">
+        <v>1.156125483937478</v>
+      </c>
+      <c r="N28">
+        <v>1.156125483937478</v>
+      </c>
+      <c r="O28">
+        <v>1.185325191008251</v>
+      </c>
+      <c r="P28">
+        <v>1.080677854557312</v>
+      </c>
+      <c r="Q28">
+        <v>1.080677854557312</v>
+      </c>
+      <c r="R28">
+        <v>1.042954039867229</v>
+      </c>
+      <c r="S28">
+        <v>1.042954039867229</v>
+      </c>
+      <c r="T28">
+        <v>1.007333632597467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9083141232624864</v>
+      </c>
+      <c r="D29">
+        <v>0.7408310584895604</v>
+      </c>
+      <c r="E29">
+        <v>1.199637941480132</v>
+      </c>
+      <c r="F29">
+        <v>0.9320556399129254</v>
+      </c>
+      <c r="G29">
+        <v>0.9320556399129254</v>
+      </c>
+      <c r="H29">
+        <v>1.366164642443086</v>
+      </c>
+      <c r="I29">
+        <v>1.366164642443086</v>
+      </c>
+      <c r="J29">
+        <v>0.898543953597868</v>
+      </c>
+      <c r="K29">
+        <v>0.9320556399129254</v>
+      </c>
+      <c r="L29">
+        <v>0.898543953597868</v>
+      </c>
+      <c r="M29">
+        <v>1.132354298020477</v>
+      </c>
+      <c r="N29">
+        <v>1.132354298020477</v>
+      </c>
+      <c r="O29">
+        <v>1.154782179173695</v>
+      </c>
+      <c r="P29">
+        <v>1.065588078651293</v>
+      </c>
+      <c r="Q29">
+        <v>1.065588078651293</v>
+      </c>
+      <c r="R29">
+        <v>1.032204968966701</v>
+      </c>
+      <c r="S29">
+        <v>1.032204968966701</v>
+      </c>
+      <c r="T29">
+        <v>1.00759122653101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9481185489238448</v>
+      </c>
+      <c r="D30">
+        <v>0.8836189906855616</v>
+      </c>
+      <c r="E30">
+        <v>1.11069266226046</v>
+      </c>
+      <c r="F30">
+        <v>0.9373902425338801</v>
+      </c>
+      <c r="G30">
+        <v>0.9373902425338801</v>
+      </c>
+      <c r="H30">
+        <v>1.215591020511827</v>
+      </c>
+      <c r="I30">
+        <v>1.215591020511827</v>
+      </c>
+      <c r="J30">
+        <v>0.9525334920540626</v>
+      </c>
+      <c r="K30">
+        <v>0.9373902425338801</v>
+      </c>
+      <c r="L30">
+        <v>0.9525334920540626</v>
+      </c>
+      <c r="M30">
+        <v>1.084062256282945</v>
+      </c>
+      <c r="N30">
+        <v>1.084062256282945</v>
+      </c>
+      <c r="O30">
+        <v>1.09293905827545</v>
+      </c>
+      <c r="P30">
+        <v>1.035171585033257</v>
+      </c>
+      <c r="Q30">
+        <v>1.035171585033257</v>
+      </c>
+      <c r="R30">
+        <v>1.010726249408413</v>
+      </c>
+      <c r="S30">
+        <v>1.010726249408413</v>
+      </c>
+      <c r="T30">
+        <v>1.007990826161606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9425806169384622</v>
+      </c>
+      <c r="D31">
+        <v>0.8808639087707121</v>
+      </c>
+      <c r="E31">
+        <v>1.120523794944008</v>
+      </c>
+      <c r="F31">
+        <v>0.9277992692925235</v>
+      </c>
+      <c r="G31">
+        <v>0.9277992692925235</v>
+      </c>
+      <c r="H31">
+        <v>1.242576551248172</v>
+      </c>
+      <c r="I31">
+        <v>1.242576551248172</v>
+      </c>
+      <c r="J31">
+        <v>0.948663484948751</v>
+      </c>
+      <c r="K31">
+        <v>0.9277992692925235</v>
+      </c>
+      <c r="L31">
+        <v>0.948663484948751</v>
+      </c>
+      <c r="M31">
+        <v>1.095620018098461</v>
+      </c>
+      <c r="N31">
+        <v>1.095620018098461</v>
+      </c>
+      <c r="O31">
+        <v>1.103921277046977</v>
+      </c>
+      <c r="P31">
+        <v>1.039679768496482</v>
+      </c>
+      <c r="Q31">
+        <v>1.039679768496482</v>
+      </c>
+      <c r="R31">
+        <v>1.011709643695492</v>
+      </c>
+      <c r="S31">
+        <v>1.011709643695492</v>
+      </c>
+      <c r="T31">
+        <v>1.010501271023771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.8719389457534248</v>
+      </c>
+      <c r="D32">
+        <v>0.6031372515068496</v>
+      </c>
+      <c r="E32">
+        <v>1.281328795753424</v>
+      </c>
+      <c r="F32">
+        <v>0.9333907060273969</v>
+      </c>
+      <c r="G32">
+        <v>0.9333907060273969</v>
+      </c>
+      <c r="H32">
+        <v>1.502021513013699</v>
+      </c>
+      <c r="I32">
+        <v>1.502021513013699</v>
+      </c>
+      <c r="J32">
+        <v>0.8466501587671232</v>
+      </c>
+      <c r="K32">
+        <v>0.9333907060273969</v>
+      </c>
+      <c r="L32">
+        <v>0.8466501587671232</v>
+      </c>
+      <c r="M32">
+        <v>1.174335835890411</v>
+      </c>
+      <c r="N32">
+        <v>1.174335835890411</v>
+      </c>
+      <c r="O32">
+        <v>1.210000155844749</v>
+      </c>
+      <c r="P32">
+        <v>1.09402079260274</v>
+      </c>
+      <c r="Q32">
+        <v>1.09402079260274</v>
+      </c>
+      <c r="R32">
+        <v>1.053863270958904</v>
+      </c>
+      <c r="S32">
+        <v>1.053863270958904</v>
+      </c>
+      <c r="T32">
+        <v>1.00641122847032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.017975865789474</v>
+      </c>
+      <c r="D33">
+        <v>1.149672160526316</v>
+      </c>
+      <c r="E33">
+        <v>0.9477376073684211</v>
+      </c>
+      <c r="F33">
+        <v>0.9567933405263157</v>
+      </c>
+      <c r="G33">
+        <v>0.9567933405263157</v>
+      </c>
+      <c r="H33">
+        <v>0.9600666142105264</v>
+      </c>
+      <c r="I33">
+        <v>0.9600666142105264</v>
+      </c>
+      <c r="J33">
+        <v>1.043153866842105</v>
+      </c>
+      <c r="K33">
+        <v>0.9567933405263157</v>
+      </c>
+      <c r="L33">
+        <v>1.043153866842105</v>
+      </c>
+      <c r="M33">
+        <v>1.001610240526316</v>
+      </c>
+      <c r="N33">
+        <v>1.001610240526316</v>
+      </c>
+      <c r="O33">
+        <v>0.9836526961403509</v>
+      </c>
+      <c r="P33">
+        <v>0.9866712738596491</v>
+      </c>
+      <c r="Q33">
+        <v>0.9866712738596491</v>
+      </c>
+      <c r="R33">
+        <v>0.9792017905263158</v>
+      </c>
+      <c r="S33">
+        <v>0.9792017905263158</v>
+      </c>
+      <c r="T33">
+        <v>1.012566575877193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.017975865789474</v>
+      </c>
+      <c r="D34">
+        <v>1.149672160526316</v>
+      </c>
+      <c r="E34">
+        <v>0.9477376073684211</v>
+      </c>
+      <c r="F34">
+        <v>0.9567933405263157</v>
+      </c>
+      <c r="G34">
+        <v>0.9567933405263157</v>
+      </c>
+      <c r="H34">
+        <v>0.9600666142105264</v>
+      </c>
+      <c r="I34">
+        <v>0.9600666142105264</v>
+      </c>
+      <c r="J34">
+        <v>1.043153866842105</v>
+      </c>
+      <c r="K34">
+        <v>0.9567933405263157</v>
+      </c>
+      <c r="L34">
+        <v>1.043153866842105</v>
+      </c>
+      <c r="M34">
+        <v>1.001610240526316</v>
+      </c>
+      <c r="N34">
+        <v>1.001610240526316</v>
+      </c>
+      <c r="O34">
+        <v>0.9836526961403509</v>
+      </c>
+      <c r="P34">
+        <v>0.9866712738596491</v>
+      </c>
+      <c r="Q34">
+        <v>0.9866712738596491</v>
+      </c>
+      <c r="R34">
+        <v>0.9792017905263158</v>
+      </c>
+      <c r="S34">
+        <v>0.9792017905263158</v>
+      </c>
+      <c r="T34">
+        <v>1.012566575877193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.7891662552863891</v>
+      </c>
+      <c r="D35">
+        <v>0.5681084129108169</v>
+      </c>
+      <c r="E35">
+        <v>1.442022487761346</v>
+      </c>
+      <c r="F35">
+        <v>0.7301685739334351</v>
+      </c>
+      <c r="G35">
+        <v>0.7301685739334351</v>
+      </c>
+      <c r="H35">
+        <v>1.893885111792006</v>
+      </c>
+      <c r="I35">
+        <v>1.893885111792006</v>
+      </c>
+      <c r="J35">
+        <v>0.8134451387584982</v>
+      </c>
+      <c r="K35">
+        <v>0.7301685739334351</v>
+      </c>
+      <c r="L35">
+        <v>0.8134451387584982</v>
+      </c>
+      <c r="M35">
+        <v>1.353665125275252</v>
+      </c>
+      <c r="N35">
+        <v>1.353665125275252</v>
+      </c>
+      <c r="O35">
+        <v>1.383117579437283</v>
+      </c>
+      <c r="P35">
+        <v>1.145832941494646</v>
+      </c>
+      <c r="Q35">
+        <v>1.145832941494647</v>
+      </c>
+      <c r="R35">
+        <v>1.041916849604344</v>
+      </c>
+      <c r="S35">
+        <v>1.041916849604344</v>
+      </c>
+      <c r="T35">
+        <v>1.039465996740415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999636432605004</v>
+      </c>
+      <c r="D36">
+        <v>1.000130852984241</v>
+      </c>
+      <c r="E36">
+        <v>1.000055527669782</v>
+      </c>
+      <c r="F36">
+        <v>0.9998086425456251</v>
+      </c>
+      <c r="G36">
+        <v>0.9998086425456251</v>
+      </c>
+      <c r="H36">
+        <v>1.000218921805035</v>
+      </c>
+      <c r="I36">
+        <v>1.000218921805035</v>
+      </c>
+      <c r="J36">
+        <v>1.000027429106686</v>
+      </c>
+      <c r="K36">
+        <v>0.9998086425456251</v>
+      </c>
+      <c r="L36">
+        <v>1.000027429106686</v>
+      </c>
+      <c r="M36">
+        <v>1.00012317545586</v>
+      </c>
+      <c r="N36">
+        <v>1.00012317545586</v>
+      </c>
+      <c r="O36">
+        <v>1.000100626193834</v>
+      </c>
+      <c r="P36">
+        <v>1.000018331152448</v>
+      </c>
+      <c r="Q36">
+        <v>1.000018331152448</v>
+      </c>
+      <c r="R36">
+        <v>0.9999659090007426</v>
+      </c>
+      <c r="S36">
+        <v>0.9999659090007426</v>
+      </c>
+      <c r="T36">
+        <v>1.000034169561978</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9994854507666864</v>
+      </c>
+      <c r="D37">
+        <v>0.9987324966449947</v>
+      </c>
+      <c r="E37">
+        <v>1.001095021055047</v>
+      </c>
+      <c r="F37">
+        <v>0.9995099779511485</v>
+      </c>
+      <c r="G37">
+        <v>0.9995099779511485</v>
+      </c>
+      <c r="H37">
+        <v>1.002124600210727</v>
+      </c>
+      <c r="I37">
+        <v>1.002124600210727</v>
+      </c>
+      <c r="J37">
+        <v>0.9994753568180496</v>
+      </c>
+      <c r="K37">
+        <v>0.9995099779511485</v>
+      </c>
+      <c r="L37">
+        <v>0.9994753568180496</v>
+      </c>
+      <c r="M37">
+        <v>1.000799978514388</v>
+      </c>
+      <c r="N37">
+        <v>1.000799978514388</v>
+      </c>
+      <c r="O37">
+        <v>1.000898326027941</v>
+      </c>
+      <c r="P37">
+        <v>1.000369978326642</v>
+      </c>
+      <c r="Q37">
+        <v>1.000369978326642</v>
+      </c>
+      <c r="R37">
+        <v>1.000154978232768</v>
+      </c>
+      <c r="S37">
+        <v>1.000154978232768</v>
+      </c>
+      <c r="T37">
+        <v>1.000070483907775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9982378551292579</v>
+      </c>
+      <c r="D38">
+        <v>0.9949135583571349</v>
+      </c>
+      <c r="E38">
+        <v>1.003853651955509</v>
+      </c>
+      <c r="F38">
+        <v>0.9987415694515315</v>
+      </c>
+      <c r="G38">
+        <v>0.9987415694515315</v>
+      </c>
+      <c r="H38">
+        <v>1.007005952661968</v>
+      </c>
+      <c r="I38">
+        <v>1.007005952661968</v>
+      </c>
+      <c r="J38">
+        <v>0.9980305658504026</v>
+      </c>
+      <c r="K38">
+        <v>0.9987415694515315</v>
+      </c>
+      <c r="L38">
+        <v>0.9980305658504026</v>
+      </c>
+      <c r="M38">
+        <v>1.002518259256185</v>
+      </c>
+      <c r="N38">
+        <v>1.002518259256185</v>
+      </c>
+      <c r="O38">
+        <v>1.00296339015596</v>
+      </c>
+      <c r="P38">
+        <v>1.001259362654634</v>
+      </c>
+      <c r="Q38">
+        <v>1.001259362654634</v>
+      </c>
+      <c r="R38">
+        <v>1.000629914353858</v>
+      </c>
+      <c r="S38">
+        <v>1.000629914353858</v>
+      </c>
+      <c r="T38">
+        <v>1.000130525567634</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.995896060417205</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9874978507761837</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.009004604474305</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.99767144237574</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.99767144237574</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.016146812424946</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.016146812424946</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9951654438153719</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.99767144237574</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9951654438153719</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.005656128120159</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.005656128120159</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.006772286904874</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.002994566205353</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.002994566205353</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.00166378524795</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.00166378524795</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000230369047292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.013506304508211</v>
+      </c>
+      <c r="D40">
+        <v>1.011316846028452</v>
+      </c>
+      <c r="E40">
+        <v>0.9717521470347471</v>
+      </c>
+      <c r="F40">
+        <v>1.034432159186005</v>
+      </c>
+      <c r="G40">
+        <v>1.034432159186005</v>
+      </c>
+      <c r="H40">
+        <v>0.9401616823332446</v>
+      </c>
+      <c r="I40">
+        <v>0.9401616823332446</v>
+      </c>
+      <c r="J40">
+        <v>1.004894838731422</v>
+      </c>
+      <c r="K40">
+        <v>1.034432159186005</v>
+      </c>
+      <c r="L40">
+        <v>1.004894838731422</v>
+      </c>
+      <c r="M40">
+        <v>0.9725282605323335</v>
+      </c>
+      <c r="N40">
+        <v>0.9725282605323335</v>
+      </c>
+      <c r="O40">
+        <v>0.972269556033138</v>
+      </c>
+      <c r="P40">
+        <v>0.9931628934168909</v>
+      </c>
+      <c r="Q40">
+        <v>0.9931628934168909</v>
+      </c>
+      <c r="R40">
+        <v>1.00348020985917</v>
+      </c>
+      <c r="S40">
+        <v>1.00348020985917</v>
+      </c>
+      <c r="T40">
+        <v>0.996010662970347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9980073118670656</v>
+      </c>
+      <c r="D41">
+        <v>0.9770366457277498</v>
+      </c>
+      <c r="E41">
+        <v>1.006114592524014</v>
+      </c>
+      <c r="F41">
+        <v>1.010316858964651</v>
+      </c>
+      <c r="G41">
+        <v>1.010316858964651</v>
+      </c>
+      <c r="H41">
+        <v>1.003187676695111</v>
+      </c>
+      <c r="I41">
+        <v>1.003187676695111</v>
+      </c>
+      <c r="J41">
+        <v>0.9929416531724142</v>
+      </c>
+      <c r="K41">
+        <v>1.010316858964651</v>
+      </c>
+      <c r="L41">
+        <v>0.9929416531724142</v>
+      </c>
+      <c r="M41">
+        <v>0.9980646649337627</v>
+      </c>
+      <c r="N41">
+        <v>0.9980646649337627</v>
+      </c>
+      <c r="O41">
+        <v>1.000747974130513</v>
+      </c>
+      <c r="P41">
+        <v>1.002148729610725</v>
+      </c>
+      <c r="Q41">
+        <v>1.002148729610725</v>
+      </c>
+      <c r="R41">
+        <v>1.004190761949207</v>
+      </c>
+      <c r="S41">
+        <v>1.004190761949207</v>
+      </c>
+      <c r="T41">
+        <v>0.9979341231585009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9294945904524242</v>
+      </c>
+      <c r="D42">
+        <v>0.7844928227429361</v>
+      </c>
+      <c r="E42">
+        <v>1.157237530263857</v>
+      </c>
+      <c r="F42">
+        <v>0.9511789114548976</v>
+      </c>
+      <c r="G42">
+        <v>0.9511789114548976</v>
+      </c>
+      <c r="H42">
+        <v>1.274407942071417</v>
+      </c>
+      <c r="I42">
+        <v>1.274407942071417</v>
+      </c>
+      <c r="J42">
+        <v>0.9205709972592476</v>
+      </c>
+      <c r="K42">
+        <v>0.9511789114548976</v>
+      </c>
+      <c r="L42">
+        <v>0.9205709972592476</v>
+      </c>
+      <c r="M42">
+        <v>1.097489469665332</v>
+      </c>
+      <c r="N42">
+        <v>1.097489469665332</v>
+      </c>
+      <c r="O42">
+        <v>1.117405489864841</v>
+      </c>
+      <c r="P42">
+        <v>1.048719283595188</v>
+      </c>
+      <c r="Q42">
+        <v>1.048719283595187</v>
+      </c>
+      <c r="R42">
+        <v>1.024334190560115</v>
+      </c>
+      <c r="S42">
+        <v>1.024334190560115</v>
+      </c>
+      <c r="T42">
+        <v>1.00289713237413</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9966990156003565</v>
+        <v>0.9990891827181051</v>
       </c>
       <c r="D3">
-        <v>1.02255342986949</v>
+        <v>0.9979789229969366</v>
       </c>
       <c r="E3">
-        <v>0.9932970024644286</v>
+        <v>1.001914445332499</v>
       </c>
       <c r="F3">
-        <v>0.9966990156003565</v>
+        <v>0.9989834532413758</v>
       </c>
       <c r="G3">
-        <v>0.9828372319867863</v>
+        <v>0.9989834532413758</v>
       </c>
       <c r="H3">
-        <v>1.012481696977369</v>
+        <v>1.003827284212734</v>
       </c>
       <c r="I3">
-        <v>0.9942888429955804</v>
+        <v>1.003827284212734</v>
       </c>
       <c r="J3">
-        <v>1.02255342986949</v>
+        <v>0.9991326921515199</v>
       </c>
       <c r="K3">
-        <v>0.9966990156003565</v>
+        <v>0.9989834532413758</v>
       </c>
       <c r="L3">
-        <v>0.9932970024644286</v>
+        <v>0.9991326921515199</v>
       </c>
       <c r="M3">
-        <v>1.00792521616696</v>
+        <v>1.001479988182127</v>
       </c>
       <c r="N3">
-        <v>1.00792521616696</v>
+        <v>1.001479988182127</v>
       </c>
       <c r="O3">
-        <v>1.009444043103763</v>
+        <v>1.001624807232251</v>
       </c>
       <c r="P3">
-        <v>1.004183149311425</v>
+        <v>1.000647809868543</v>
       </c>
       <c r="Q3">
-        <v>1.004183149311425</v>
+        <v>1.000647809868543</v>
       </c>
       <c r="R3">
-        <v>1.002312115883658</v>
+        <v>1.000231720711751</v>
       </c>
       <c r="S3">
-        <v>1.002312115883658</v>
+        <v>1.000231720711751</v>
       </c>
       <c r="T3">
-        <v>1.000359536649002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>1.000154330108862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9935509379976035</v>
+        <v>1.013506304508211</v>
       </c>
       <c r="D4">
-        <v>1.043443850611905</v>
+        <v>1.011316846028452</v>
       </c>
       <c r="E4">
-        <v>0.9871098179442374</v>
+        <v>0.9717521470347471</v>
       </c>
       <c r="F4">
-        <v>0.9935509379976035</v>
+        <v>1.034432159186005</v>
       </c>
       <c r="G4">
-        <v>0.9668497590159907</v>
+        <v>1.034432159186005</v>
       </c>
       <c r="H4">
-        <v>1.024104766916538</v>
+        <v>0.9401616823332446</v>
       </c>
       <c r="I4">
-        <v>0.9889876958284327</v>
+        <v>0.9401616823332446</v>
       </c>
       <c r="J4">
-        <v>1.043443850611905</v>
+        <v>1.004894838731422</v>
       </c>
       <c r="K4">
-        <v>0.9935509379976035</v>
+        <v>1.034432159186005</v>
       </c>
       <c r="L4">
-        <v>0.9871098179442374</v>
+        <v>1.004894838731422</v>
       </c>
       <c r="M4">
-        <v>1.015276834278071</v>
+        <v>0.9725282605323335</v>
       </c>
       <c r="N4">
-        <v>1.015276834278071</v>
+        <v>0.9725282605323335</v>
       </c>
       <c r="O4">
-        <v>1.018219478490894</v>
+        <v>0.972269556033138</v>
       </c>
       <c r="P4">
-        <v>1.008034868851249</v>
+        <v>0.9931628934168909</v>
       </c>
       <c r="Q4">
-        <v>1.008034868851249</v>
+        <v>0.9931628934168909</v>
       </c>
       <c r="R4">
-        <v>1.004413886137837</v>
+        <v>1.00348020985917</v>
       </c>
       <c r="S4">
-        <v>1.004413886137837</v>
+        <v>1.00348020985917</v>
       </c>
       <c r="T4">
-        <v>1.000674471385784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.996010662970347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9874229271354172</v>
+        <v>0.9391599488544725</v>
       </c>
       <c r="D5">
-        <v>1.083632723005161</v>
+        <v>0.8651901928314049</v>
       </c>
       <c r="E5">
-        <v>0.9753250368868929</v>
+        <v>1.129378701974065</v>
       </c>
       <c r="F5">
-        <v>0.9874229271354172</v>
+        <v>0.9263837395389045</v>
       </c>
       <c r="G5">
-        <v>0.9368783764192616</v>
+        <v>0.9263837395389045</v>
       </c>
       <c r="H5">
-        <v>1.046188591028678</v>
+        <v>1.253638470670028</v>
       </c>
       <c r="I5">
-        <v>0.9788521201062682</v>
+        <v>1.253638470670028</v>
       </c>
       <c r="J5">
-        <v>1.083632723005161</v>
+        <v>0.9444176489193069</v>
       </c>
       <c r="K5">
-        <v>0.9874229271354172</v>
+        <v>0.9263837395389045</v>
       </c>
       <c r="L5">
-        <v>0.9753250368868929</v>
+        <v>0.9444176489193069</v>
       </c>
       <c r="M5">
-        <v>1.029478879946027</v>
+        <v>1.099028059794667</v>
       </c>
       <c r="N5">
-        <v>1.029478879946027</v>
+        <v>1.099028059794667</v>
       </c>
       <c r="O5">
-        <v>1.035048783640244</v>
+        <v>1.109144940521133</v>
       </c>
       <c r="P5">
-        <v>1.015460229009157</v>
+        <v>1.041479953042747</v>
       </c>
       <c r="Q5">
-        <v>1.015460229009157</v>
+        <v>1.041479953042746</v>
       </c>
       <c r="R5">
-        <v>1.008450903540722</v>
+        <v>1.012705899666786</v>
       </c>
       <c r="S5">
-        <v>1.008450903540722</v>
+        <v>1.012705899666786</v>
       </c>
       <c r="T5">
-        <v>1.001383295763613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>1.00969478379803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9814221719476222</v>
+        <v>0.7891662552863891</v>
       </c>
       <c r="D6">
-        <v>1.122815994816953</v>
+        <v>0.5681084129108169</v>
       </c>
       <c r="E6">
-        <v>0.9638145395626547</v>
+        <v>1.442022487761346</v>
       </c>
       <c r="F6">
-        <v>0.9814221719476222</v>
+        <v>0.7301685739334351</v>
       </c>
       <c r="G6">
-        <v>0.9076719595928502</v>
+        <v>0.7301685739334351</v>
       </c>
       <c r="H6">
-        <v>1.067761399800366</v>
+        <v>1.893885111792006</v>
       </c>
       <c r="I6">
-        <v>0.968947955285394</v>
+        <v>1.893885111792006</v>
       </c>
       <c r="J6">
-        <v>1.122815994816953</v>
+        <v>0.8134451387584982</v>
       </c>
       <c r="K6">
-        <v>0.9814221719476222</v>
+        <v>0.7301685739334351</v>
       </c>
       <c r="L6">
-        <v>0.9638145395626547</v>
+        <v>0.8134451387584982</v>
       </c>
       <c r="M6">
-        <v>1.043315267189804</v>
+        <v>1.353665125275252</v>
       </c>
       <c r="N6">
-        <v>1.043315267189804</v>
+        <v>1.353665125275252</v>
       </c>
       <c r="O6">
-        <v>1.051463978059991</v>
+        <v>1.383117579437283</v>
       </c>
       <c r="P6">
-        <v>1.02268423544241</v>
+        <v>1.145832941494646</v>
       </c>
       <c r="Q6">
-        <v>1.02268423544241</v>
+        <v>1.145832941494647</v>
       </c>
       <c r="R6">
-        <v>1.012368719568713</v>
+        <v>1.041916849604344</v>
       </c>
       <c r="S6">
-        <v>1.012368719568713</v>
+        <v>1.041916849604344</v>
       </c>
       <c r="T6">
-        <v>1.002072336834307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.039465996740415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9995348953821249</v>
+        <v>0.9941186258524725</v>
       </c>
       <c r="D7">
-        <v>1.001651609949274</v>
+        <v>0.9822496769578909</v>
       </c>
       <c r="E7">
-        <v>0.9996383248620656</v>
+        <v>1.012906285755233</v>
       </c>
       <c r="F7">
-        <v>0.9995348953821249</v>
+        <v>0.9964774849741852</v>
       </c>
       <c r="G7">
-        <v>0.9991556692504917</v>
+        <v>0.9964774849741852</v>
       </c>
       <c r="H7">
-        <v>1.000823695813079</v>
+        <v>1.023167026680087</v>
       </c>
       <c r="I7">
-        <v>0.9996081709337705</v>
+        <v>1.023167026680087</v>
       </c>
       <c r="J7">
-        <v>1.001651609949274</v>
+        <v>0.9931479024256832</v>
       </c>
       <c r="K7">
-        <v>0.9995348953821249</v>
+        <v>0.9964774849741852</v>
       </c>
       <c r="L7">
-        <v>0.9996383248620656</v>
+        <v>0.9931479024256832</v>
       </c>
       <c r="M7">
-        <v>1.00064496740567</v>
+        <v>1.008157464552885</v>
       </c>
       <c r="N7">
-        <v>1.00064496740567</v>
+        <v>1.008157464552885</v>
       </c>
       <c r="O7">
-        <v>1.000704543541473</v>
+        <v>1.009740404953668</v>
       </c>
       <c r="P7">
-        <v>1.000274943397822</v>
+        <v>1.004264138026652</v>
       </c>
       <c r="Q7">
-        <v>1.000274943397822</v>
+        <v>1.004264138026652</v>
       </c>
       <c r="R7">
-        <v>1.000089931393897</v>
+        <v>1.002317474763535</v>
       </c>
       <c r="S7">
-        <v>1.000089931393897</v>
+        <v>1.002317474763535</v>
       </c>
       <c r="T7">
-        <v>1.000068727698468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>1.000344500440925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9989834532413758</v>
+        <v>0.9994854507666864</v>
       </c>
       <c r="D8">
-        <v>1.003827284212734</v>
+        <v>0.9987324966449947</v>
       </c>
       <c r="E8">
-        <v>0.9991326921515197</v>
+        <v>1.001095021055047</v>
       </c>
       <c r="F8">
-        <v>0.9989834532413758</v>
+        <v>0.9995099779511485</v>
       </c>
       <c r="G8">
-        <v>0.9979789229969367</v>
+        <v>0.9995099779511485</v>
       </c>
       <c r="H8">
-        <v>1.001914445332499</v>
+        <v>1.002124600210727</v>
       </c>
       <c r="I8">
-        <v>0.9990891827181051</v>
+        <v>1.002124600210727</v>
       </c>
       <c r="J8">
-        <v>1.003827284212734</v>
+        <v>0.9994753568180496</v>
       </c>
       <c r="K8">
-        <v>0.9989834532413758</v>
+        <v>0.9995099779511485</v>
       </c>
       <c r="L8">
-        <v>0.9991326921515197</v>
+        <v>0.9994753568180496</v>
       </c>
       <c r="M8">
-        <v>1.001479988182127</v>
+        <v>1.000799978514388</v>
       </c>
       <c r="N8">
-        <v>1.001479988182127</v>
+        <v>1.000799978514388</v>
       </c>
       <c r="O8">
-        <v>1.001624807232251</v>
+        <v>1.000898326027941</v>
       </c>
       <c r="P8">
-        <v>1.000647809868543</v>
+        <v>1.000369978326642</v>
       </c>
       <c r="Q8">
-        <v>1.000647809868543</v>
+        <v>1.000369978326642</v>
       </c>
       <c r="R8">
-        <v>1.000231720711751</v>
+        <v>1.000154978232768</v>
       </c>
       <c r="S8">
-        <v>1.000231720711751</v>
+        <v>1.000154978232768</v>
       </c>
       <c r="T8">
-        <v>1.000154330108862</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>1.000070483907775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9988064509610675</v>
+        <v>0.9889876958284327</v>
       </c>
       <c r="D9">
-        <v>1.004975866444715</v>
+        <v>0.9668497590159907</v>
       </c>
       <c r="E9">
-        <v>0.9987986037887363</v>
+        <v>1.024104766916539</v>
       </c>
       <c r="F9">
-        <v>0.9988064509610675</v>
+        <v>0.9935509379976036</v>
       </c>
       <c r="G9">
-        <v>0.9971147771401326</v>
+        <v>0.9935509379976036</v>
       </c>
       <c r="H9">
-        <v>1.002545372599141</v>
+        <v>1.043443850611905</v>
       </c>
       <c r="I9">
-        <v>0.9988008917707335</v>
+        <v>1.043443850611905</v>
       </c>
       <c r="J9">
-        <v>1.004975866444715</v>
+        <v>0.9871098179442374</v>
       </c>
       <c r="K9">
-        <v>0.9988064509610675</v>
+        <v>0.9935509379976036</v>
       </c>
       <c r="L9">
-        <v>0.9987986037887363</v>
+        <v>0.9871098179442374</v>
       </c>
       <c r="M9">
-        <v>1.001887235116725</v>
+        <v>1.015276834278071</v>
       </c>
       <c r="N9">
-        <v>1.001887235116725</v>
+        <v>1.015276834278071</v>
       </c>
       <c r="O9">
-        <v>1.002106614277531</v>
+        <v>1.018219478490894</v>
       </c>
       <c r="P9">
-        <v>1.000860307064839</v>
+        <v>1.008034868851249</v>
       </c>
       <c r="Q9">
-        <v>1.000860307064839</v>
+        <v>1.008034868851249</v>
       </c>
       <c r="R9">
-        <v>1.000346843038896</v>
+        <v>1.004413886137837</v>
       </c>
       <c r="S9">
-        <v>1.000346843038896</v>
+        <v>1.004413886137837</v>
       </c>
       <c r="T9">
-        <v>1.000173660450754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>1.000674471385784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9971462921552766</v>
+        <v>0.7857320304234394</v>
       </c>
       <c r="D10">
-        <v>1.011136768289456</v>
+        <v>0.5637275469168626</v>
       </c>
       <c r="E10">
-        <v>0.9974160880239042</v>
+        <v>1.448503238795248</v>
       </c>
       <c r="F10">
-        <v>0.9971462921552766</v>
+        <v>0.7256387980671045</v>
       </c>
       <c r="G10">
-        <v>0.9938888198592684</v>
+        <v>0.7256387980671045</v>
       </c>
       <c r="H10">
-        <v>1.005621520369852</v>
+        <v>1.909722360520279</v>
       </c>
       <c r="I10">
-        <v>0.9973374304726209</v>
+        <v>1.909722360520279</v>
       </c>
       <c r="J10">
-        <v>1.011136768289456</v>
+        <v>0.8104617596064749</v>
       </c>
       <c r="K10">
-        <v>0.9971462921552766</v>
+        <v>0.7256387980671045</v>
       </c>
       <c r="L10">
-        <v>0.9974160880239042</v>
+        <v>0.8104617596064749</v>
       </c>
       <c r="M10">
-        <v>1.00427642815668</v>
+        <v>1.360092060063377</v>
       </c>
       <c r="N10">
-        <v>1.00427642815668</v>
+        <v>1.360092060063377</v>
       </c>
       <c r="O10">
-        <v>1.004724792227738</v>
+        <v>1.389562452974</v>
       </c>
       <c r="P10">
-        <v>1.001899716156212</v>
+        <v>1.148607639397953</v>
       </c>
       <c r="Q10">
-        <v>1.001899716156212</v>
+        <v>1.148607639397953</v>
       </c>
       <c r="R10">
-        <v>1.000711360155979</v>
+        <v>1.042865429065241</v>
       </c>
       <c r="S10">
-        <v>1.000711360155979</v>
+        <v>1.042865429065241</v>
       </c>
       <c r="T10">
-        <v>1.000424486528397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>1.040630955721568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9959961527168397</v>
+        <v>0.9976404827251049</v>
       </c>
       <c r="D11">
-        <v>1.017438526344134</v>
+        <v>0.9427572850807736</v>
       </c>
       <c r="E11">
-        <v>0.995704298614741</v>
+        <v>1.009487414766989</v>
       </c>
       <c r="F11">
-        <v>0.9959961527168397</v>
+        <v>1.03599351671351</v>
       </c>
       <c r="G11">
-        <v>0.989719639423471</v>
+        <v>1.03599351671351</v>
       </c>
       <c r="H11">
-        <v>1.008932425425231</v>
+        <v>0.9960234373669559</v>
       </c>
       <c r="I11">
-        <v>0.9957893867517393</v>
+        <v>0.9960234373669559</v>
       </c>
       <c r="J11">
-        <v>1.017438526344134</v>
+        <v>0.9818573378370968</v>
       </c>
       <c r="K11">
-        <v>0.9959961527168397</v>
+        <v>1.03599351671351</v>
       </c>
       <c r="L11">
-        <v>0.995704298614741</v>
+        <v>0.9818573378370968</v>
       </c>
       <c r="M11">
-        <v>1.006571412479438</v>
+        <v>0.9889403876020264</v>
       </c>
       <c r="N11">
-        <v>1.006571412479438</v>
+        <v>0.9889403876020264</v>
       </c>
       <c r="O11">
-        <v>1.007358416794702</v>
+        <v>0.9957893966570138</v>
       </c>
       <c r="P11">
-        <v>1.003046325891905</v>
+        <v>1.004624763972521</v>
       </c>
       <c r="Q11">
-        <v>1.003046325891905</v>
+        <v>1.004624763972521</v>
       </c>
       <c r="R11">
-        <v>1.001283782598139</v>
+        <v>1.012466952157768</v>
       </c>
       <c r="S11">
-        <v>1.001283782598139</v>
+        <v>1.012466952157768</v>
       </c>
       <c r="T11">
-        <v>1.000596738212693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9939599124150716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.149037622560001</v>
+        <v>0.9360040503263173</v>
       </c>
       <c r="D12">
-        <v>0.8204048001973049</v>
+        <v>0.8727094854421024</v>
       </c>
       <c r="E12">
-        <v>0.9881717888424015</v>
+        <v>1.133729462894737</v>
       </c>
       <c r="F12">
-        <v>1.149037622560001</v>
+        <v>0.9158503017473711</v>
       </c>
       <c r="G12">
-        <v>0.9443252807997771</v>
+        <v>0.9158503017473711</v>
       </c>
       <c r="H12">
-        <v>0.9350393378495425</v>
+        <v>1.272091301589473</v>
       </c>
       <c r="I12">
-        <v>1.035071447918575</v>
+        <v>1.272091301589473</v>
       </c>
       <c r="J12">
-        <v>0.8204048001973049</v>
+        <v>0.9442977795052631</v>
       </c>
       <c r="K12">
-        <v>1.149037622560001</v>
+        <v>0.9158503017473711</v>
       </c>
       <c r="L12">
-        <v>0.9881717888424015</v>
+        <v>0.9442977795052631</v>
       </c>
       <c r="M12">
-        <v>0.9042882945198532</v>
+        <v>1.108194540547368</v>
       </c>
       <c r="N12">
-        <v>0.9042882945198532</v>
+        <v>1.108194540547368</v>
       </c>
       <c r="O12">
-        <v>0.9145386422964163</v>
+        <v>1.116706181329825</v>
       </c>
       <c r="P12">
-        <v>0.9858714038665694</v>
+        <v>1.044079794280703</v>
       </c>
       <c r="Q12">
-        <v>0.9858714038665694</v>
+        <v>1.044079794280703</v>
       </c>
       <c r="R12">
-        <v>1.026662958539927</v>
+        <v>1.01202242114737</v>
       </c>
       <c r="S12">
-        <v>1.026662958539927</v>
+        <v>1.01202242114737</v>
       </c>
       <c r="T12">
-        <v>0.9786750463612672</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>1.012447063584211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.954184354519098</v>
+        <v>1.039922964039473</v>
       </c>
       <c r="D13">
-        <v>0.9979665529146311</v>
+        <v>1.104888318398167</v>
       </c>
       <c r="E13">
-        <v>1.025025072477704</v>
+        <v>0.9111979910952371</v>
       </c>
       <c r="F13">
-        <v>0.954184354519098</v>
+        <v>1.045331566589734</v>
       </c>
       <c r="G13">
-        <v>1.071988105605746</v>
+        <v>1.045331566589734</v>
       </c>
       <c r="H13">
-        <v>0.9864557617646039</v>
+        <v>0.8410188949544894</v>
       </c>
       <c r="I13">
-        <v>1.004371796744131</v>
+        <v>0.8410188949544894</v>
       </c>
       <c r="J13">
-        <v>0.9979665529146311</v>
+        <v>1.037697206941859</v>
       </c>
       <c r="K13">
-        <v>0.954184354519098</v>
+        <v>1.045331566589734</v>
       </c>
       <c r="L13">
-        <v>1.025025072477704</v>
+        <v>1.037697206941859</v>
       </c>
       <c r="M13">
-        <v>1.011495812696168</v>
+        <v>0.939358050948174</v>
       </c>
       <c r="N13">
-        <v>1.011495812696168</v>
+        <v>0.939358050948174</v>
       </c>
       <c r="O13">
-        <v>1.003149129052313</v>
+        <v>0.9299713643305284</v>
       </c>
       <c r="P13">
-        <v>0.9923919933038109</v>
+        <v>0.9746825561620273</v>
       </c>
       <c r="Q13">
-        <v>0.9923919933038109</v>
+        <v>0.9746825561620273</v>
       </c>
       <c r="R13">
-        <v>0.9828400836076328</v>
+        <v>0.9923448087689539</v>
       </c>
       <c r="S13">
-        <v>0.9828400836076328</v>
+        <v>0.9923448087689539</v>
       </c>
       <c r="T13">
-        <v>1.006665274004319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>0.9966761570031597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.014626936988383</v>
+        <v>0.6295274399999993</v>
       </c>
       <c r="D14">
-        <v>0.7597461781066924</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="E14">
-        <v>1.082862769416514</v>
+        <v>1.774851600000002</v>
       </c>
       <c r="F14">
-        <v>1.014626936988383</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="G14">
-        <v>1.220272599678329</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="H14">
-        <v>0.8593655019656384</v>
+        <v>2.574842499999997</v>
       </c>
       <c r="I14">
-        <v>1.062968929823972</v>
+        <v>2.574842499999997</v>
       </c>
       <c r="J14">
-        <v>0.7597461781066924</v>
+        <v>0.6734045099999993</v>
       </c>
       <c r="K14">
-        <v>1.014626936988383</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="L14">
-        <v>1.082862769416514</v>
+        <v>0.6734045099999993</v>
       </c>
       <c r="M14">
-        <v>0.921304473761603</v>
+        <v>1.624123504999998</v>
       </c>
       <c r="N14">
-        <v>0.921304473761603</v>
+        <v>1.624123504999998</v>
       </c>
       <c r="O14">
-        <v>0.9006581498296148</v>
+        <v>1.674366203333333</v>
       </c>
       <c r="P14">
-        <v>0.9524119615038629</v>
+        <v>1.257051059999999</v>
       </c>
       <c r="Q14">
-        <v>0.9524119615038629</v>
+        <v>1.257051059999999</v>
       </c>
       <c r="R14">
-        <v>0.9679657053749928</v>
+        <v>1.073514837499999</v>
       </c>
       <c r="S14">
-        <v>0.9679657053749928</v>
+        <v>1.073514837499999</v>
       </c>
       <c r="T14">
-        <v>0.9999738193299214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1.070955956666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.04145784451504</v>
+        <v>1.1014624</v>
       </c>
       <c r="D15">
-        <v>0.9315213570110724</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="E15">
-        <v>1.00641866625033</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="F15">
-        <v>1.04145784451504</v>
+        <v>1.3679559</v>
       </c>
       <c r="G15">
-        <v>1.028013016945667</v>
+        <v>1.3679559</v>
       </c>
       <c r="H15">
-        <v>0.9616110877432206</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="I15">
-        <v>1.01663416019459</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="J15">
-        <v>0.9315213570110724</v>
+        <v>0.99179431</v>
       </c>
       <c r="K15">
-        <v>1.04145784451504</v>
+        <v>1.3679559</v>
       </c>
       <c r="L15">
-        <v>1.00641866625033</v>
+        <v>0.99179431</v>
       </c>
       <c r="M15">
-        <v>0.9689700116307012</v>
+        <v>0.75735024</v>
       </c>
       <c r="N15">
-        <v>0.9689700116307012</v>
+        <v>0.75735024</v>
       </c>
       <c r="O15">
-        <v>0.966517037001541</v>
+        <v>0.76950231</v>
       </c>
       <c r="P15">
-        <v>0.9931326225921476</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q15">
-        <v>0.9931326225921474</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R15">
-        <v>1.005213928072871</v>
+        <v>1.06265307</v>
       </c>
       <c r="S15">
-        <v>1.005213928072871</v>
+        <v>1.06265307</v>
       </c>
       <c r="T15">
-        <v>0.9976093554433199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9566266583333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9998086425456252</v>
+        <v>1.1014624</v>
       </c>
       <c r="D16">
-        <v>1.000218921805034</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="E16">
-        <v>1.000027429106686</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="F16">
-        <v>0.9998086425456252</v>
+        <v>1.3679559</v>
       </c>
       <c r="G16">
-        <v>1.000130852984241</v>
+        <v>1.3679559</v>
       </c>
       <c r="H16">
-        <v>1.000055527669781</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="I16">
-        <v>0.9999636432605007</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="J16">
-        <v>1.000218921805034</v>
+        <v>0.99179431</v>
       </c>
       <c r="K16">
-        <v>0.9998086425456252</v>
+        <v>1.3679559</v>
       </c>
       <c r="L16">
-        <v>1.000027429106686</v>
+        <v>0.99179431</v>
       </c>
       <c r="M16">
-        <v>1.00012317545586</v>
+        <v>0.75735024</v>
       </c>
       <c r="N16">
-        <v>1.00012317545586</v>
+        <v>0.75735024</v>
       </c>
       <c r="O16">
-        <v>1.000100626193834</v>
+        <v>0.76950231</v>
       </c>
       <c r="P16">
-        <v>1.000018331152448</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q16">
-        <v>1.000018331152448</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R16">
-        <v>0.9999659090007427</v>
+        <v>1.06265307</v>
       </c>
       <c r="S16">
-        <v>0.9999659090007427</v>
+        <v>1.06265307</v>
       </c>
       <c r="T16">
-        <v>1.000034169561978</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9995099779511485</v>
+        <v>1.2056441</v>
       </c>
       <c r="D17">
-        <v>1.002124600210727</v>
+        <v>1.8930712</v>
       </c>
       <c r="E17">
-        <v>0.9994753568180496</v>
+        <v>0.51107457</v>
       </c>
       <c r="F17">
-        <v>0.9995099779511485</v>
+        <v>0.97744771</v>
       </c>
       <c r="G17">
-        <v>0.9987324966449947</v>
+        <v>0.97744771</v>
       </c>
       <c r="H17">
-        <v>1.001095021055047</v>
+        <v>0.26942157</v>
       </c>
       <c r="I17">
-        <v>0.9994854507666864</v>
+        <v>0.26942157</v>
       </c>
       <c r="J17">
-        <v>1.002124600210727</v>
+        <v>1.2995521</v>
       </c>
       <c r="K17">
-        <v>0.9995099779511485</v>
+        <v>0.97744771</v>
       </c>
       <c r="L17">
-        <v>0.9994753568180496</v>
+        <v>1.2995521</v>
       </c>
       <c r="M17">
-        <v>1.000799978514388</v>
+        <v>0.7844868350000002</v>
       </c>
       <c r="N17">
-        <v>1.000799978514388</v>
+        <v>0.7844868350000002</v>
       </c>
       <c r="O17">
-        <v>1.000898326027941</v>
+        <v>0.6933494133333334</v>
       </c>
       <c r="P17">
-        <v>1.000369978326642</v>
+        <v>0.8488071266666668</v>
       </c>
       <c r="Q17">
-        <v>1.000369978326642</v>
+        <v>0.8488071266666667</v>
       </c>
       <c r="R17">
-        <v>1.000154978232769</v>
+        <v>0.8809672725</v>
       </c>
       <c r="S17">
-        <v>1.000154978232769</v>
+        <v>0.8809672725</v>
       </c>
       <c r="T17">
-        <v>1.000070483907776</v>
+        <v>1.026035208333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9987415694515315</v>
+        <v>0.8719389457534248</v>
       </c>
       <c r="D18">
-        <v>1.007005952661968</v>
+        <v>0.6031372515068496</v>
       </c>
       <c r="E18">
-        <v>0.9980305658504031</v>
+        <v>1.281328795753424</v>
       </c>
       <c r="F18">
-        <v>0.9987415694515315</v>
+        <v>0.9333907060273969</v>
       </c>
       <c r="G18">
-        <v>0.9949135583571347</v>
+        <v>0.9333907060273969</v>
       </c>
       <c r="H18">
-        <v>1.003853651955509</v>
+        <v>1.502021513013699</v>
       </c>
       <c r="I18">
-        <v>0.9982378551292579</v>
+        <v>1.502021513013699</v>
       </c>
       <c r="J18">
-        <v>1.007005952661968</v>
+        <v>0.8466501587671232</v>
       </c>
       <c r="K18">
-        <v>0.9987415694515315</v>
+        <v>0.9333907060273969</v>
       </c>
       <c r="L18">
-        <v>0.9980305658504031</v>
+        <v>0.8466501587671232</v>
       </c>
       <c r="M18">
-        <v>1.002518259256186</v>
+        <v>1.174335835890411</v>
       </c>
       <c r="N18">
-        <v>1.002518259256186</v>
+        <v>1.174335835890411</v>
       </c>
       <c r="O18">
-        <v>1.00296339015596</v>
+        <v>1.210000155844749</v>
       </c>
       <c r="P18">
-        <v>1.001259362654634</v>
+        <v>1.09402079260274</v>
       </c>
       <c r="Q18">
-        <v>1.001259362654634</v>
+        <v>1.09402079260274</v>
       </c>
       <c r="R18">
-        <v>1.000629914353859</v>
+        <v>1.053863270958904</v>
       </c>
       <c r="S18">
-        <v>1.000629914353859</v>
+        <v>1.053863270958904</v>
       </c>
       <c r="T18">
-        <v>1.000130525567634</v>
+        <v>1.00641122847032</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9976714423757398</v>
+        <v>1.017975865789474</v>
       </c>
       <c r="D19">
-        <v>1.016146812424946</v>
+        <v>1.149672160526316</v>
       </c>
       <c r="E19">
-        <v>0.9951654438153719</v>
+        <v>0.9477376073684211</v>
       </c>
       <c r="F19">
-        <v>0.9976714423757398</v>
+        <v>0.9567933405263157</v>
       </c>
       <c r="G19">
-        <v>0.9874978507761837</v>
+        <v>0.9567933405263157</v>
       </c>
       <c r="H19">
-        <v>1.009004604474305</v>
+        <v>0.9600666142105264</v>
       </c>
       <c r="I19">
-        <v>0.9958960604172049</v>
+        <v>0.9600666142105264</v>
       </c>
       <c r="J19">
-        <v>1.016146812424946</v>
+        <v>1.043153866842105</v>
       </c>
       <c r="K19">
-        <v>0.9976714423757398</v>
+        <v>0.9567933405263157</v>
       </c>
       <c r="L19">
-        <v>0.9951654438153719</v>
+        <v>1.043153866842105</v>
       </c>
       <c r="M19">
-        <v>1.005656128120159</v>
+        <v>1.001610240526316</v>
       </c>
       <c r="N19">
-        <v>1.005656128120159</v>
+        <v>1.001610240526316</v>
       </c>
       <c r="O19">
-        <v>1.006772286904874</v>
+        <v>0.9836526961403509</v>
       </c>
       <c r="P19">
-        <v>1.002994566205353</v>
+        <v>0.9866712738596491</v>
       </c>
       <c r="Q19">
-        <v>1.002994566205353</v>
+        <v>0.9866712738596491</v>
       </c>
       <c r="R19">
-        <v>1.00166378524795</v>
+        <v>0.9792017905263158</v>
       </c>
       <c r="S19">
-        <v>1.00166378524795</v>
+        <v>0.9792017905263158</v>
       </c>
       <c r="T19">
-        <v>1.000230369047292</v>
+        <v>1.012566575877193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.017975865789474</v>
+      </c>
+      <c r="D20">
+        <v>1.149672160526316</v>
+      </c>
+      <c r="E20">
+        <v>0.9477376073684211</v>
+      </c>
+      <c r="F20">
+        <v>0.9567933405263157</v>
+      </c>
+      <c r="G20">
+        <v>0.9567933405263157</v>
+      </c>
+      <c r="H20">
+        <v>0.9600666142105264</v>
+      </c>
+      <c r="I20">
+        <v>0.9600666142105264</v>
+      </c>
+      <c r="J20">
+        <v>1.043153866842105</v>
+      </c>
+      <c r="K20">
+        <v>0.9567933405263157</v>
+      </c>
+      <c r="L20">
+        <v>1.043153866842105</v>
+      </c>
+      <c r="M20">
+        <v>1.001610240526316</v>
+      </c>
+      <c r="N20">
+        <v>1.001610240526316</v>
+      </c>
+      <c r="O20">
+        <v>0.9836526961403509</v>
+      </c>
+      <c r="P20">
+        <v>0.9866712738596491</v>
+      </c>
+      <c r="Q20">
+        <v>0.9866712738596491</v>
+      </c>
+      <c r="R20">
+        <v>0.9792017905263158</v>
+      </c>
+      <c r="S20">
+        <v>0.9792017905263158</v>
+      </c>
+      <c r="T20">
+        <v>1.012566575877193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.062968929823972</v>
+      </c>
+      <c r="D21">
+        <v>1.220272599678329</v>
+      </c>
+      <c r="E21">
+        <v>0.8593655019656384</v>
+      </c>
+      <c r="F21">
+        <v>1.014626936988382</v>
+      </c>
+      <c r="G21">
+        <v>1.014626936988382</v>
+      </c>
+      <c r="H21">
+        <v>0.7597461781066924</v>
+      </c>
+      <c r="I21">
+        <v>0.7597461781066924</v>
+      </c>
+      <c r="J21">
+        <v>1.082862769416514</v>
+      </c>
+      <c r="K21">
+        <v>1.014626936988382</v>
+      </c>
+      <c r="L21">
+        <v>1.082862769416514</v>
+      </c>
+      <c r="M21">
+        <v>0.921304473761603</v>
+      </c>
+      <c r="N21">
+        <v>0.921304473761603</v>
+      </c>
+      <c r="O21">
+        <v>0.9006581498296148</v>
+      </c>
+      <c r="P21">
+        <v>0.9524119615038629</v>
+      </c>
+      <c r="Q21">
+        <v>0.9524119615038629</v>
+      </c>
+      <c r="R21">
+        <v>0.9679657053749928</v>
+      </c>
+      <c r="S21">
+        <v>0.9679657053749928</v>
+      </c>
+      <c r="T21">
+        <v>0.9999738193299214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.016634160194589</v>
+      </c>
+      <c r="D22">
+        <v>1.028013016945666</v>
+      </c>
+      <c r="E22">
+        <v>0.9616110877432208</v>
+      </c>
+      <c r="F22">
+        <v>1.04145784451504</v>
+      </c>
+      <c r="G22">
+        <v>1.04145784451504</v>
+      </c>
+      <c r="H22">
+        <v>0.9315213570110724</v>
+      </c>
+      <c r="I22">
+        <v>0.9315213570110724</v>
+      </c>
+      <c r="J22">
+        <v>1.00641866625033</v>
+      </c>
+      <c r="K22">
+        <v>1.04145784451504</v>
+      </c>
+      <c r="L22">
+        <v>1.00641866625033</v>
+      </c>
+      <c r="M22">
+        <v>0.9689700116307012</v>
+      </c>
+      <c r="N22">
+        <v>0.9689700116307012</v>
+      </c>
+      <c r="O22">
+        <v>0.966517037001541</v>
+      </c>
+      <c r="P22">
+        <v>0.9931326225921476</v>
+      </c>
+      <c r="Q22">
+        <v>0.9931326225921474</v>
+      </c>
+      <c r="R22">
+        <v>1.005213928072871</v>
+      </c>
+      <c r="S22">
+        <v>1.005213928072871</v>
+      </c>
+      <c r="T22">
+        <v>0.9976093554433199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.035071447918576</v>
+      </c>
+      <c r="D23">
+        <v>0.9443252807997772</v>
+      </c>
+      <c r="E23">
+        <v>0.9350393378495424</v>
+      </c>
+      <c r="F23">
+        <v>1.149037622560001</v>
+      </c>
+      <c r="G23">
+        <v>1.149037622560001</v>
+      </c>
+      <c r="H23">
+        <v>0.8204048001973048</v>
+      </c>
+      <c r="I23">
+        <v>0.8204048001973048</v>
+      </c>
+      <c r="J23">
+        <v>0.9881717888424015</v>
+      </c>
+      <c r="K23">
+        <v>1.149037622560001</v>
+      </c>
+      <c r="L23">
+        <v>0.9881717888424015</v>
+      </c>
+      <c r="M23">
+        <v>0.9042882945198532</v>
+      </c>
+      <c r="N23">
+        <v>0.9042882945198532</v>
+      </c>
+      <c r="O23">
+        <v>0.9145386422964162</v>
+      </c>
+      <c r="P23">
+        <v>0.9858714038665694</v>
+      </c>
+      <c r="Q23">
+        <v>0.9858714038665694</v>
+      </c>
+      <c r="R23">
+        <v>1.026662958539927</v>
+      </c>
+      <c r="S23">
+        <v>1.026662958539927</v>
+      </c>
+      <c r="T23">
+        <v>0.9786750463612671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.004371796744131</v>
+      </c>
+      <c r="D24">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="E24">
+        <v>0.9864557617646038</v>
+      </c>
+      <c r="F24">
+        <v>0.9541843545190981</v>
+      </c>
+      <c r="G24">
+        <v>0.9541843545190981</v>
+      </c>
+      <c r="H24">
+        <v>0.9979665529146311</v>
+      </c>
+      <c r="I24">
+        <v>0.9979665529146311</v>
+      </c>
+      <c r="J24">
+        <v>1.025025072477704</v>
+      </c>
+      <c r="K24">
+        <v>0.9541843545190981</v>
+      </c>
+      <c r="L24">
+        <v>1.025025072477704</v>
+      </c>
+      <c r="M24">
+        <v>1.011495812696168</v>
+      </c>
+      <c r="N24">
+        <v>1.011495812696168</v>
+      </c>
+      <c r="O24">
+        <v>1.003149129052313</v>
+      </c>
+      <c r="P24">
+        <v>0.9923919933038111</v>
+      </c>
+      <c r="Q24">
+        <v>0.9923919933038109</v>
+      </c>
+      <c r="R24">
+        <v>0.9828400836076328</v>
+      </c>
+      <c r="S24">
+        <v>0.9828400836076328</v>
+      </c>
+      <c r="T24">
+        <v>1.006665274004319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.062968929823972</v>
+      </c>
+      <c r="D25">
+        <v>1.220272599678329</v>
+      </c>
+      <c r="E25">
+        <v>0.8593655019656384</v>
+      </c>
+      <c r="F25">
+        <v>1.014626936988383</v>
+      </c>
+      <c r="G25">
+        <v>1.014626936988383</v>
+      </c>
+      <c r="H25">
+        <v>0.7597461781066924</v>
+      </c>
+      <c r="I25">
+        <v>0.7597461781066924</v>
+      </c>
+      <c r="J25">
+        <v>1.082862769416514</v>
+      </c>
+      <c r="K25">
+        <v>1.014626936988383</v>
+      </c>
+      <c r="L25">
+        <v>1.082862769416514</v>
+      </c>
+      <c r="M25">
+        <v>0.921304473761603</v>
+      </c>
+      <c r="N25">
+        <v>0.921304473761603</v>
+      </c>
+      <c r="O25">
+        <v>0.9006581498296148</v>
+      </c>
+      <c r="P25">
+        <v>0.9524119615038629</v>
+      </c>
+      <c r="Q25">
+        <v>0.9524119615038629</v>
+      </c>
+      <c r="R25">
+        <v>0.9679657053749928</v>
+      </c>
+      <c r="S25">
+        <v>0.9679657053749928</v>
+      </c>
+      <c r="T25">
+        <v>0.9999738193299214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.016634160194589</v>
+      </c>
+      <c r="D26">
+        <v>1.028013016945666</v>
+      </c>
+      <c r="E26">
+        <v>0.9616110877432208</v>
+      </c>
+      <c r="F26">
+        <v>1.04145784451504</v>
+      </c>
+      <c r="G26">
+        <v>1.04145784451504</v>
+      </c>
+      <c r="H26">
+        <v>0.9315213570110723</v>
+      </c>
+      <c r="I26">
+        <v>0.9315213570110723</v>
+      </c>
+      <c r="J26">
+        <v>1.00641866625033</v>
+      </c>
+      <c r="K26">
+        <v>1.04145784451504</v>
+      </c>
+      <c r="L26">
+        <v>1.00641866625033</v>
+      </c>
+      <c r="M26">
+        <v>0.9689700116307011</v>
+      </c>
+      <c r="N26">
+        <v>0.9689700116307011</v>
+      </c>
+      <c r="O26">
+        <v>0.966517037001541</v>
+      </c>
+      <c r="P26">
+        <v>0.9931326225921474</v>
+      </c>
+      <c r="Q26">
+        <v>0.9931326225921474</v>
+      </c>
+      <c r="R26">
+        <v>1.005213928072871</v>
+      </c>
+      <c r="S26">
+        <v>1.005213928072871</v>
+      </c>
+      <c r="T26">
+        <v>0.9976093554433199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9796708009316484</v>
+      </c>
+      <c r="D27">
+        <v>0.9388171093576456</v>
+      </c>
+      <c r="E27">
+        <v>1.046676515631951</v>
+      </c>
+      <c r="F27">
+        <v>0.9800743610234084</v>
+      </c>
+      <c r="G27">
+        <v>0.9800743610234084</v>
+      </c>
+      <c r="H27">
+        <v>1.077237485059289</v>
+      </c>
+      <c r="I27">
+        <v>1.077237485059289</v>
+      </c>
+      <c r="J27">
+        <v>0.9795047541632883</v>
+      </c>
+      <c r="K27">
+        <v>0.9800743610234084</v>
+      </c>
+      <c r="L27">
+        <v>0.9795047541632883</v>
+      </c>
+      <c r="M27">
+        <v>1.028371119611289</v>
+      </c>
+      <c r="N27">
+        <v>1.028371119611289</v>
+      </c>
+      <c r="O27">
+        <v>1.034472918284843</v>
+      </c>
+      <c r="P27">
+        <v>1.012272200081995</v>
+      </c>
+      <c r="Q27">
+        <v>1.012272200081995</v>
+      </c>
+      <c r="R27">
+        <v>1.004222740317348</v>
+      </c>
+      <c r="S27">
+        <v>1.004222740317348</v>
+      </c>
+      <c r="T27">
+        <v>1.000330171027872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.015926421949576</v>
+      </c>
+      <c r="D28">
+        <v>1.066712902859506</v>
+      </c>
+      <c r="E28">
+        <v>0.9622721308520906</v>
+      </c>
+      <c r="F28">
+        <v>1.000644890410327</v>
+      </c>
+      <c r="G28">
+        <v>1.000644890410327</v>
+      </c>
+      <c r="H28">
+        <v>0.9422057789184132</v>
+      </c>
+      <c r="I28">
+        <v>0.9422057789184132</v>
+      </c>
+      <c r="J28">
+        <v>1.022215120488832</v>
+      </c>
+      <c r="K28">
+        <v>1.000644890410327</v>
+      </c>
+      <c r="L28">
+        <v>1.022215120488832</v>
+      </c>
+      <c r="M28">
+        <v>0.9822104497036226</v>
+      </c>
+      <c r="N28">
+        <v>0.9822104497036226</v>
+      </c>
+      <c r="O28">
+        <v>0.9755643434197786</v>
+      </c>
+      <c r="P28">
+        <v>0.9883552632725241</v>
+      </c>
+      <c r="Q28">
+        <v>0.9883552632725241</v>
+      </c>
+      <c r="R28">
+        <v>0.9914276700569749</v>
+      </c>
+      <c r="S28">
+        <v>0.9914276700569749</v>
+      </c>
+      <c r="T28">
+        <v>1.001662874246457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.080070810559743</v>
+      </c>
+      <c r="D29">
+        <v>1.247406778171029</v>
+      </c>
+      <c r="E29">
+        <v>0.8224734586843748</v>
+      </c>
+      <c r="F29">
+        <v>1.049460403831756</v>
+      </c>
+      <c r="G29">
+        <v>1.049460403831756</v>
+      </c>
+      <c r="H29">
+        <v>0.6857972887800929</v>
+      </c>
+      <c r="I29">
+        <v>0.6857972887800929</v>
+      </c>
+      <c r="J29">
+        <v>1.092667693538542</v>
+      </c>
+      <c r="K29">
+        <v>1.049460403831756</v>
+      </c>
+      <c r="L29">
+        <v>1.092667693538542</v>
+      </c>
+      <c r="M29">
+        <v>0.8892324911593174</v>
+      </c>
+      <c r="N29">
+        <v>0.8892324911593174</v>
+      </c>
+      <c r="O29">
+        <v>0.8669794803343365</v>
+      </c>
+      <c r="P29">
+        <v>0.9426417953834637</v>
+      </c>
+      <c r="Q29">
+        <v>0.9426417953834637</v>
+      </c>
+      <c r="R29">
+        <v>0.9693464474955369</v>
+      </c>
+      <c r="S29">
+        <v>0.9693464474955369</v>
+      </c>
+      <c r="T29">
+        <v>0.9963127389275898</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.013506304508211</v>
+        <v>0.947080866833913</v>
       </c>
       <c r="D4">
-        <v>1.011316846028452</v>
+        <v>0.8830486967638586</v>
       </c>
       <c r="E4">
-        <v>0.9717521470347471</v>
+        <v>1.112796908515802</v>
       </c>
       <c r="F4">
-        <v>1.034432159186005</v>
+        <v>0.9346628205061608</v>
       </c>
       <c r="G4">
-        <v>1.034432159186005</v>
+        <v>0.9346628205061608</v>
       </c>
       <c r="H4">
-        <v>0.9401616823332446</v>
+        <v>1.220338010373251</v>
       </c>
       <c r="I4">
-        <v>0.9401616823332446</v>
+        <v>1.220338010373251</v>
       </c>
       <c r="J4">
-        <v>1.004894838731422</v>
+        <v>0.952191174442774</v>
       </c>
       <c r="K4">
-        <v>1.034432159186005</v>
+        <v>0.9346628205061608</v>
       </c>
       <c r="L4">
-        <v>1.004894838731422</v>
+        <v>0.952191174442774</v>
       </c>
       <c r="M4">
-        <v>0.9725282605323335</v>
+        <v>1.086264592408012</v>
       </c>
       <c r="N4">
-        <v>0.9725282605323335</v>
+        <v>1.086264592408012</v>
       </c>
       <c r="O4">
-        <v>0.972269556033138</v>
+        <v>1.095108697777275</v>
       </c>
       <c r="P4">
-        <v>0.9931628934168909</v>
+        <v>1.035730668440728</v>
       </c>
       <c r="Q4">
-        <v>0.9931628934168909</v>
+        <v>1.035730668440728</v>
       </c>
       <c r="R4">
-        <v>1.00348020985917</v>
+        <v>1.010463706457086</v>
       </c>
       <c r="S4">
-        <v>1.00348020985917</v>
+        <v>1.010463706457086</v>
       </c>
       <c r="T4">
-        <v>0.996010662970347</v>
+        <v>1.008353079572627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9391599488544725</v>
+        <v>1.046940379947563</v>
       </c>
       <c r="D5">
-        <v>0.8651901928314049</v>
+        <v>1.226690916419899</v>
       </c>
       <c r="E5">
-        <v>1.129378701974065</v>
+        <v>0.8853566742153822</v>
       </c>
       <c r="F5">
-        <v>0.9263837395389045</v>
+        <v>0.9811535867659517</v>
       </c>
       <c r="G5">
-        <v>0.9263837395389045</v>
+        <v>0.9811535867659517</v>
       </c>
       <c r="H5">
-        <v>1.253638470670028</v>
+        <v>0.842144732987282</v>
       </c>
       <c r="I5">
-        <v>1.253638470670028</v>
+        <v>0.842144732987282</v>
       </c>
       <c r="J5">
-        <v>0.9444176489193069</v>
+        <v>1.07401314151932</v>
       </c>
       <c r="K5">
-        <v>0.9263837395389045</v>
+        <v>0.9811535867659517</v>
       </c>
       <c r="L5">
-        <v>0.9444176489193069</v>
+        <v>1.07401314151932</v>
       </c>
       <c r="M5">
-        <v>1.099028059794667</v>
+        <v>0.958078937253301</v>
       </c>
       <c r="N5">
-        <v>1.099028059794667</v>
+        <v>0.958078937253301</v>
       </c>
       <c r="O5">
-        <v>1.109144940521133</v>
+        <v>0.9338381829073281</v>
       </c>
       <c r="P5">
-        <v>1.041479953042747</v>
+        <v>0.9657704870908512</v>
       </c>
       <c r="Q5">
-        <v>1.041479953042746</v>
+        <v>0.9657704870908512</v>
       </c>
       <c r="R5">
-        <v>1.012705899666786</v>
+        <v>0.9696162620096264</v>
       </c>
       <c r="S5">
-        <v>1.012705899666786</v>
+        <v>0.9696162620096264</v>
       </c>
       <c r="T5">
-        <v>1.00969478379803</v>
+        <v>1.009383238642567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7891662552863891</v>
+        <v>1.013506304508211</v>
       </c>
       <c r="D6">
-        <v>0.5681084129108169</v>
+        <v>1.011316846028452</v>
       </c>
       <c r="E6">
-        <v>1.442022487761346</v>
+        <v>0.9717521470347471</v>
       </c>
       <c r="F6">
-        <v>0.7301685739334351</v>
+        <v>1.034432159186005</v>
       </c>
       <c r="G6">
-        <v>0.7301685739334351</v>
+        <v>1.034432159186005</v>
       </c>
       <c r="H6">
-        <v>1.893885111792006</v>
+        <v>0.9401616823332446</v>
       </c>
       <c r="I6">
-        <v>1.893885111792006</v>
+        <v>0.9401616823332446</v>
       </c>
       <c r="J6">
-        <v>0.8134451387584982</v>
+        <v>1.004894838731422</v>
       </c>
       <c r="K6">
-        <v>0.7301685739334351</v>
+        <v>1.034432159186005</v>
       </c>
       <c r="L6">
-        <v>0.8134451387584982</v>
+        <v>1.004894838731422</v>
       </c>
       <c r="M6">
-        <v>1.353665125275252</v>
+        <v>0.9725282605323335</v>
       </c>
       <c r="N6">
-        <v>1.353665125275252</v>
+        <v>0.9725282605323335</v>
       </c>
       <c r="O6">
-        <v>1.383117579437283</v>
+        <v>0.972269556033138</v>
       </c>
       <c r="P6">
-        <v>1.145832941494646</v>
+        <v>0.9931628934168909</v>
       </c>
       <c r="Q6">
-        <v>1.145832941494647</v>
+        <v>0.9931628934168909</v>
       </c>
       <c r="R6">
-        <v>1.041916849604344</v>
+        <v>1.00348020985917</v>
       </c>
       <c r="S6">
-        <v>1.041916849604344</v>
+        <v>1.00348020985917</v>
       </c>
       <c r="T6">
-        <v>1.039465996740415</v>
+        <v>0.996010662970347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9941186258524725</v>
+        <v>0.9391599488544725</v>
       </c>
       <c r="D7">
-        <v>0.9822496769578909</v>
+        <v>0.8651901928314049</v>
       </c>
       <c r="E7">
-        <v>1.012906285755233</v>
+        <v>1.129378701974065</v>
       </c>
       <c r="F7">
-        <v>0.9964774849741852</v>
+        <v>0.9263837395389045</v>
       </c>
       <c r="G7">
-        <v>0.9964774849741852</v>
+        <v>0.9263837395389045</v>
       </c>
       <c r="H7">
-        <v>1.023167026680087</v>
+        <v>1.253638470670028</v>
       </c>
       <c r="I7">
-        <v>1.023167026680087</v>
+        <v>1.253638470670028</v>
       </c>
       <c r="J7">
-        <v>0.9931479024256832</v>
+        <v>0.9444176489193069</v>
       </c>
       <c r="K7">
-        <v>0.9964774849741852</v>
+        <v>0.9263837395389045</v>
       </c>
       <c r="L7">
-        <v>0.9931479024256832</v>
+        <v>0.9444176489193069</v>
       </c>
       <c r="M7">
-        <v>1.008157464552885</v>
+        <v>1.099028059794667</v>
       </c>
       <c r="N7">
-        <v>1.008157464552885</v>
+        <v>1.099028059794667</v>
       </c>
       <c r="O7">
-        <v>1.009740404953668</v>
+        <v>1.109144940521133</v>
       </c>
       <c r="P7">
-        <v>1.004264138026652</v>
+        <v>1.041479953042747</v>
       </c>
       <c r="Q7">
-        <v>1.004264138026652</v>
+        <v>1.041479953042746</v>
       </c>
       <c r="R7">
-        <v>1.002317474763535</v>
+        <v>1.012705899666786</v>
       </c>
       <c r="S7">
-        <v>1.002317474763535</v>
+        <v>1.012705899666786</v>
       </c>
       <c r="T7">
-        <v>1.000344500440925</v>
+        <v>1.00969478379803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9994854507666864</v>
+        <v>0.7891662552863891</v>
       </c>
       <c r="D8">
-        <v>0.9987324966449947</v>
+        <v>0.5681084129108169</v>
       </c>
       <c r="E8">
-        <v>1.001095021055047</v>
+        <v>1.442022487761346</v>
       </c>
       <c r="F8">
-        <v>0.9995099779511485</v>
+        <v>0.7301685739334351</v>
       </c>
       <c r="G8">
-        <v>0.9995099779511485</v>
+        <v>0.7301685739334351</v>
       </c>
       <c r="H8">
-        <v>1.002124600210727</v>
+        <v>1.893885111792006</v>
       </c>
       <c r="I8">
-        <v>1.002124600210727</v>
+        <v>1.893885111792006</v>
       </c>
       <c r="J8">
-        <v>0.9994753568180496</v>
+        <v>0.8134451387584982</v>
       </c>
       <c r="K8">
-        <v>0.9995099779511485</v>
+        <v>0.7301685739334351</v>
       </c>
       <c r="L8">
-        <v>0.9994753568180496</v>
+        <v>0.8134451387584982</v>
       </c>
       <c r="M8">
-        <v>1.000799978514388</v>
+        <v>1.353665125275252</v>
       </c>
       <c r="N8">
-        <v>1.000799978514388</v>
+        <v>1.353665125275252</v>
       </c>
       <c r="O8">
-        <v>1.000898326027941</v>
+        <v>1.383117579437283</v>
       </c>
       <c r="P8">
-        <v>1.000369978326642</v>
+        <v>1.145832941494646</v>
       </c>
       <c r="Q8">
-        <v>1.000369978326642</v>
+        <v>1.145832941494647</v>
       </c>
       <c r="R8">
-        <v>1.000154978232768</v>
+        <v>1.041916849604344</v>
       </c>
       <c r="S8">
-        <v>1.000154978232768</v>
+        <v>1.041916849604344</v>
       </c>
       <c r="T8">
-        <v>1.000070483907775</v>
+        <v>1.039465996740415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9889876958284327</v>
+        <v>0.9941186258524725</v>
       </c>
       <c r="D9">
-        <v>0.9668497590159907</v>
+        <v>0.9822496769578909</v>
       </c>
       <c r="E9">
-        <v>1.024104766916539</v>
+        <v>1.012906285755233</v>
       </c>
       <c r="F9">
-        <v>0.9935509379976036</v>
+        <v>0.9964774849741852</v>
       </c>
       <c r="G9">
-        <v>0.9935509379976036</v>
+        <v>0.9964774849741852</v>
       </c>
       <c r="H9">
-        <v>1.043443850611905</v>
+        <v>1.023167026680087</v>
       </c>
       <c r="I9">
-        <v>1.043443850611905</v>
+        <v>1.023167026680087</v>
       </c>
       <c r="J9">
-        <v>0.9871098179442374</v>
+        <v>0.9931479024256832</v>
       </c>
       <c r="K9">
-        <v>0.9935509379976036</v>
+        <v>0.9964774849741852</v>
       </c>
       <c r="L9">
-        <v>0.9871098179442374</v>
+        <v>0.9931479024256832</v>
       </c>
       <c r="M9">
-        <v>1.015276834278071</v>
+        <v>1.008157464552885</v>
       </c>
       <c r="N9">
-        <v>1.015276834278071</v>
+        <v>1.008157464552885</v>
       </c>
       <c r="O9">
-        <v>1.018219478490894</v>
+        <v>1.009740404953668</v>
       </c>
       <c r="P9">
-        <v>1.008034868851249</v>
+        <v>1.004264138026652</v>
       </c>
       <c r="Q9">
-        <v>1.008034868851249</v>
+        <v>1.004264138026652</v>
       </c>
       <c r="R9">
-        <v>1.004413886137837</v>
+        <v>1.002317474763535</v>
       </c>
       <c r="S9">
-        <v>1.004413886137837</v>
+        <v>1.002317474763535</v>
       </c>
       <c r="T9">
-        <v>1.000674471385784</v>
+        <v>1.000344500440925</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7857320304234394</v>
+        <v>0.9994854507666864</v>
       </c>
       <c r="D10">
-        <v>0.5637275469168626</v>
+        <v>0.9987324966449947</v>
       </c>
       <c r="E10">
-        <v>1.448503238795248</v>
+        <v>1.001095021055047</v>
       </c>
       <c r="F10">
-        <v>0.7256387980671045</v>
+        <v>0.9995099779511485</v>
       </c>
       <c r="G10">
-        <v>0.7256387980671045</v>
+        <v>0.9995099779511485</v>
       </c>
       <c r="H10">
-        <v>1.909722360520279</v>
+        <v>1.002124600210727</v>
       </c>
       <c r="I10">
-        <v>1.909722360520279</v>
+        <v>1.002124600210727</v>
       </c>
       <c r="J10">
-        <v>0.8104617596064749</v>
+        <v>0.9994753568180496</v>
       </c>
       <c r="K10">
-        <v>0.7256387980671045</v>
+        <v>0.9995099779511485</v>
       </c>
       <c r="L10">
-        <v>0.8104617596064749</v>
+        <v>0.9994753568180496</v>
       </c>
       <c r="M10">
-        <v>1.360092060063377</v>
+        <v>1.000799978514388</v>
       </c>
       <c r="N10">
-        <v>1.360092060063377</v>
+        <v>1.000799978514388</v>
       </c>
       <c r="O10">
-        <v>1.389562452974</v>
+        <v>1.000898326027941</v>
       </c>
       <c r="P10">
-        <v>1.148607639397953</v>
+        <v>1.000369978326642</v>
       </c>
       <c r="Q10">
-        <v>1.148607639397953</v>
+        <v>1.000369978326642</v>
       </c>
       <c r="R10">
-        <v>1.042865429065241</v>
+        <v>1.000154978232768</v>
       </c>
       <c r="S10">
-        <v>1.042865429065241</v>
+        <v>1.000154978232768</v>
       </c>
       <c r="T10">
-        <v>1.040630955721568</v>
+        <v>1.000070483907775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9976404827251049</v>
+        <v>0.9889876958284327</v>
       </c>
       <c r="D11">
-        <v>0.9427572850807736</v>
+        <v>0.9668497590159907</v>
       </c>
       <c r="E11">
-        <v>1.009487414766989</v>
+        <v>1.024104766916539</v>
       </c>
       <c r="F11">
-        <v>1.03599351671351</v>
+        <v>0.9935509379976036</v>
       </c>
       <c r="G11">
-        <v>1.03599351671351</v>
+        <v>0.9935509379976036</v>
       </c>
       <c r="H11">
-        <v>0.9960234373669559</v>
+        <v>1.043443850611905</v>
       </c>
       <c r="I11">
-        <v>0.9960234373669559</v>
+        <v>1.043443850611905</v>
       </c>
       <c r="J11">
-        <v>0.9818573378370968</v>
+        <v>0.9871098179442374</v>
       </c>
       <c r="K11">
-        <v>1.03599351671351</v>
+        <v>0.9935509379976036</v>
       </c>
       <c r="L11">
-        <v>0.9818573378370968</v>
+        <v>0.9871098179442374</v>
       </c>
       <c r="M11">
-        <v>0.9889403876020264</v>
+        <v>1.015276834278071</v>
       </c>
       <c r="N11">
-        <v>0.9889403876020264</v>
+        <v>1.015276834278071</v>
       </c>
       <c r="O11">
-        <v>0.9957893966570138</v>
+        <v>1.018219478490894</v>
       </c>
       <c r="P11">
-        <v>1.004624763972521</v>
+        <v>1.008034868851249</v>
       </c>
       <c r="Q11">
-        <v>1.004624763972521</v>
+        <v>1.008034868851249</v>
       </c>
       <c r="R11">
-        <v>1.012466952157768</v>
+        <v>1.004413886137837</v>
       </c>
       <c r="S11">
-        <v>1.012466952157768</v>
+        <v>1.004413886137837</v>
       </c>
       <c r="T11">
-        <v>0.9939599124150716</v>
+        <v>1.000674471385784</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9360040503263173</v>
+        <v>0.7857320304234394</v>
       </c>
       <c r="D12">
-        <v>0.8727094854421024</v>
+        <v>0.5637275469168626</v>
       </c>
       <c r="E12">
-        <v>1.133729462894737</v>
+        <v>1.448503238795248</v>
       </c>
       <c r="F12">
-        <v>0.9158503017473711</v>
+        <v>0.7256387980671045</v>
       </c>
       <c r="G12">
-        <v>0.9158503017473711</v>
+        <v>0.7256387980671045</v>
       </c>
       <c r="H12">
-        <v>1.272091301589473</v>
+        <v>1.909722360520279</v>
       </c>
       <c r="I12">
-        <v>1.272091301589473</v>
+        <v>1.909722360520279</v>
       </c>
       <c r="J12">
-        <v>0.9442977795052631</v>
+        <v>0.8104617596064749</v>
       </c>
       <c r="K12">
-        <v>0.9158503017473711</v>
+        <v>0.7256387980671045</v>
       </c>
       <c r="L12">
-        <v>0.9442977795052631</v>
+        <v>0.8104617596064749</v>
       </c>
       <c r="M12">
-        <v>1.108194540547368</v>
+        <v>1.360092060063377</v>
       </c>
       <c r="N12">
-        <v>1.108194540547368</v>
+        <v>1.360092060063377</v>
       </c>
       <c r="O12">
-        <v>1.116706181329825</v>
+        <v>1.389562452974</v>
       </c>
       <c r="P12">
-        <v>1.044079794280703</v>
+        <v>1.148607639397953</v>
       </c>
       <c r="Q12">
-        <v>1.044079794280703</v>
+        <v>1.148607639397953</v>
       </c>
       <c r="R12">
-        <v>1.01202242114737</v>
+        <v>1.042865429065241</v>
       </c>
       <c r="S12">
-        <v>1.01202242114737</v>
+        <v>1.042865429065241</v>
       </c>
       <c r="T12">
-        <v>1.012447063584211</v>
+        <v>1.040630955721568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.039922964039473</v>
+        <v>0.9976404827251049</v>
       </c>
       <c r="D13">
-        <v>1.104888318398167</v>
+        <v>0.9427572850807736</v>
       </c>
       <c r="E13">
-        <v>0.9111979910952371</v>
+        <v>1.009487414766989</v>
       </c>
       <c r="F13">
-        <v>1.045331566589734</v>
+        <v>1.03599351671351</v>
       </c>
       <c r="G13">
-        <v>1.045331566589734</v>
+        <v>1.03599351671351</v>
       </c>
       <c r="H13">
-        <v>0.8410188949544894</v>
+        <v>0.9960234373669559</v>
       </c>
       <c r="I13">
-        <v>0.8410188949544894</v>
+        <v>0.9960234373669559</v>
       </c>
       <c r="J13">
-        <v>1.037697206941859</v>
+        <v>0.9818573378370968</v>
       </c>
       <c r="K13">
-        <v>1.045331566589734</v>
+        <v>1.03599351671351</v>
       </c>
       <c r="L13">
-        <v>1.037697206941859</v>
+        <v>0.9818573378370968</v>
       </c>
       <c r="M13">
-        <v>0.939358050948174</v>
+        <v>0.9889403876020264</v>
       </c>
       <c r="N13">
-        <v>0.939358050948174</v>
+        <v>0.9889403876020264</v>
       </c>
       <c r="O13">
-        <v>0.9299713643305284</v>
+        <v>0.9957893966570138</v>
       </c>
       <c r="P13">
-        <v>0.9746825561620273</v>
+        <v>1.004624763972521</v>
       </c>
       <c r="Q13">
-        <v>0.9746825561620273</v>
+        <v>1.004624763972521</v>
       </c>
       <c r="R13">
-        <v>0.9923448087689539</v>
+        <v>1.012466952157768</v>
       </c>
       <c r="S13">
-        <v>0.9923448087689539</v>
+        <v>1.012466952157768</v>
       </c>
       <c r="T13">
-        <v>0.9966761570031597</v>
+        <v>0.9939599124150716</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6295274399999993</v>
+        <v>0.9360040503263173</v>
       </c>
       <c r="D14">
-        <v>0.2502035199999997</v>
+        <v>0.8727094854421024</v>
       </c>
       <c r="E14">
-        <v>1.774851600000002</v>
+        <v>1.133729462894737</v>
       </c>
       <c r="F14">
-        <v>0.5229061699999994</v>
+        <v>0.9158503017473711</v>
       </c>
       <c r="G14">
-        <v>0.5229061699999994</v>
+        <v>0.9158503017473711</v>
       </c>
       <c r="H14">
-        <v>2.574842499999997</v>
+        <v>1.272091301589473</v>
       </c>
       <c r="I14">
-        <v>2.574842499999997</v>
+        <v>1.272091301589473</v>
       </c>
       <c r="J14">
-        <v>0.6734045099999993</v>
+        <v>0.9442977795052631</v>
       </c>
       <c r="K14">
-        <v>0.5229061699999994</v>
+        <v>0.9158503017473711</v>
       </c>
       <c r="L14">
-        <v>0.6734045099999993</v>
+        <v>0.9442977795052631</v>
       </c>
       <c r="M14">
-        <v>1.624123504999998</v>
+        <v>1.108194540547368</v>
       </c>
       <c r="N14">
-        <v>1.624123504999998</v>
+        <v>1.108194540547368</v>
       </c>
       <c r="O14">
-        <v>1.674366203333333</v>
+        <v>1.116706181329825</v>
       </c>
       <c r="P14">
-        <v>1.257051059999999</v>
+        <v>1.044079794280703</v>
       </c>
       <c r="Q14">
-        <v>1.257051059999999</v>
+        <v>1.044079794280703</v>
       </c>
       <c r="R14">
-        <v>1.073514837499999</v>
+        <v>1.01202242114737</v>
       </c>
       <c r="S14">
-        <v>1.073514837499999</v>
+        <v>1.01202242114737</v>
       </c>
       <c r="T14">
-        <v>1.070955956666666</v>
+        <v>1.012447063584211</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.1014624</v>
+        <v>1.039922964039473</v>
       </c>
       <c r="D15">
-        <v>0.9618347200000001</v>
+        <v>1.104888318398167</v>
       </c>
       <c r="E15">
-        <v>0.7938064500000001</v>
+        <v>0.9111979910952371</v>
       </c>
       <c r="F15">
-        <v>1.3679559</v>
+        <v>1.045331566589734</v>
       </c>
       <c r="G15">
-        <v>1.3679559</v>
+        <v>1.045331566589734</v>
       </c>
       <c r="H15">
-        <v>0.5229061699999999</v>
+        <v>0.8410188949544894</v>
       </c>
       <c r="I15">
-        <v>0.5229061699999999</v>
+        <v>0.8410188949544894</v>
       </c>
       <c r="J15">
-        <v>0.99179431</v>
+        <v>1.037697206941859</v>
       </c>
       <c r="K15">
-        <v>1.3679559</v>
+        <v>1.045331566589734</v>
       </c>
       <c r="L15">
-        <v>0.99179431</v>
+        <v>1.037697206941859</v>
       </c>
       <c r="M15">
-        <v>0.75735024</v>
+        <v>0.939358050948174</v>
       </c>
       <c r="N15">
-        <v>0.75735024</v>
+        <v>0.939358050948174</v>
       </c>
       <c r="O15">
-        <v>0.76950231</v>
+        <v>0.9299713643305284</v>
       </c>
       <c r="P15">
-        <v>0.9608854599999997</v>
+        <v>0.9746825561620273</v>
       </c>
       <c r="Q15">
-        <v>0.9608854599999997</v>
+        <v>0.9746825561620273</v>
       </c>
       <c r="R15">
-        <v>1.06265307</v>
+        <v>0.9923448087689539</v>
       </c>
       <c r="S15">
-        <v>1.06265307</v>
+        <v>0.9923448087689539</v>
       </c>
       <c r="T15">
-        <v>0.9566266583333332</v>
+        <v>0.9966761570031597</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.1014624</v>
+        <v>0.6295274399999993</v>
       </c>
       <c r="D16">
-        <v>0.9618347200000001</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="E16">
-        <v>0.7938064500000001</v>
+        <v>1.774851600000002</v>
       </c>
       <c r="F16">
-        <v>1.3679559</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="G16">
-        <v>1.3679559</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="H16">
-        <v>0.5229061699999999</v>
+        <v>2.574842499999997</v>
       </c>
       <c r="I16">
-        <v>0.5229061699999999</v>
+        <v>2.574842499999997</v>
       </c>
       <c r="J16">
-        <v>0.99179431</v>
+        <v>0.6734045099999993</v>
       </c>
       <c r="K16">
-        <v>1.3679559</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="L16">
-        <v>0.99179431</v>
+        <v>0.6734045099999993</v>
       </c>
       <c r="M16">
-        <v>0.75735024</v>
+        <v>1.624123504999998</v>
       </c>
       <c r="N16">
-        <v>0.75735024</v>
+        <v>1.624123504999998</v>
       </c>
       <c r="O16">
-        <v>0.76950231</v>
+        <v>1.674366203333333</v>
       </c>
       <c r="P16">
-        <v>0.9608854599999997</v>
+        <v>1.257051059999999</v>
       </c>
       <c r="Q16">
-        <v>0.9608854599999997</v>
+        <v>1.257051059999999</v>
       </c>
       <c r="R16">
-        <v>1.06265307</v>
+        <v>1.073514837499999</v>
       </c>
       <c r="S16">
-        <v>1.06265307</v>
+        <v>1.073514837499999</v>
       </c>
       <c r="T16">
-        <v>0.9566266583333332</v>
+        <v>1.070955956666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.2056441</v>
+        <v>1.1014624</v>
       </c>
       <c r="D17">
-        <v>1.8930712</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="E17">
-        <v>0.51107457</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="F17">
-        <v>0.97744771</v>
+        <v>1.3679559</v>
       </c>
       <c r="G17">
-        <v>0.97744771</v>
+        <v>1.3679559</v>
       </c>
       <c r="H17">
-        <v>0.26942157</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="I17">
-        <v>0.26942157</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="J17">
-        <v>1.2995521</v>
+        <v>0.99179431</v>
       </c>
       <c r="K17">
-        <v>0.97744771</v>
+        <v>1.3679559</v>
       </c>
       <c r="L17">
-        <v>1.2995521</v>
+        <v>0.99179431</v>
       </c>
       <c r="M17">
-        <v>0.7844868350000002</v>
+        <v>0.75735024</v>
       </c>
       <c r="N17">
-        <v>0.7844868350000002</v>
+        <v>0.75735024</v>
       </c>
       <c r="O17">
-        <v>0.6933494133333334</v>
+        <v>0.76950231</v>
       </c>
       <c r="P17">
-        <v>0.8488071266666668</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q17">
-        <v>0.8488071266666667</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R17">
-        <v>0.8809672725</v>
+        <v>1.06265307</v>
       </c>
       <c r="S17">
-        <v>0.8809672725</v>
+        <v>1.06265307</v>
       </c>
       <c r="T17">
-        <v>1.026035208333333</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8719389457534248</v>
+        <v>1.1014624</v>
       </c>
       <c r="D18">
-        <v>0.6031372515068496</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="E18">
-        <v>1.281328795753424</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="F18">
-        <v>0.9333907060273969</v>
+        <v>1.3679559</v>
       </c>
       <c r="G18">
-        <v>0.9333907060273969</v>
+        <v>1.3679559</v>
       </c>
       <c r="H18">
-        <v>1.502021513013699</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="I18">
-        <v>1.502021513013699</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="J18">
-        <v>0.8466501587671232</v>
+        <v>0.99179431</v>
       </c>
       <c r="K18">
-        <v>0.9333907060273969</v>
+        <v>1.3679559</v>
       </c>
       <c r="L18">
-        <v>0.8466501587671232</v>
+        <v>0.99179431</v>
       </c>
       <c r="M18">
-        <v>1.174335835890411</v>
+        <v>0.75735024</v>
       </c>
       <c r="N18">
-        <v>1.174335835890411</v>
+        <v>0.75735024</v>
       </c>
       <c r="O18">
-        <v>1.210000155844749</v>
+        <v>0.76950231</v>
       </c>
       <c r="P18">
-        <v>1.09402079260274</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q18">
-        <v>1.09402079260274</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R18">
-        <v>1.053863270958904</v>
+        <v>1.06265307</v>
       </c>
       <c r="S18">
-        <v>1.053863270958904</v>
+        <v>1.06265307</v>
       </c>
       <c r="T18">
-        <v>1.00641122847032</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.017975865789474</v>
+        <v>1.2056441</v>
       </c>
       <c r="D19">
-        <v>1.149672160526316</v>
+        <v>1.8930712</v>
       </c>
       <c r="E19">
-        <v>0.9477376073684211</v>
+        <v>0.51107457</v>
       </c>
       <c r="F19">
-        <v>0.9567933405263157</v>
+        <v>0.97744771</v>
       </c>
       <c r="G19">
-        <v>0.9567933405263157</v>
+        <v>0.97744771</v>
       </c>
       <c r="H19">
-        <v>0.9600666142105264</v>
+        <v>0.26942157</v>
       </c>
       <c r="I19">
-        <v>0.9600666142105264</v>
+        <v>0.26942157</v>
       </c>
       <c r="J19">
-        <v>1.043153866842105</v>
+        <v>1.2995521</v>
       </c>
       <c r="K19">
-        <v>0.9567933405263157</v>
+        <v>0.97744771</v>
       </c>
       <c r="L19">
-        <v>1.043153866842105</v>
+        <v>1.2995521</v>
       </c>
       <c r="M19">
-        <v>1.001610240526316</v>
+        <v>0.7844868350000002</v>
       </c>
       <c r="N19">
-        <v>1.001610240526316</v>
+        <v>0.7844868350000002</v>
       </c>
       <c r="O19">
-        <v>0.9836526961403509</v>
+        <v>0.6933494133333334</v>
       </c>
       <c r="P19">
-        <v>0.9866712738596491</v>
+        <v>0.8488071266666668</v>
       </c>
       <c r="Q19">
-        <v>0.9866712738596491</v>
+        <v>0.8488071266666667</v>
       </c>
       <c r="R19">
-        <v>0.9792017905263158</v>
+        <v>0.8809672725</v>
       </c>
       <c r="S19">
-        <v>0.9792017905263158</v>
+        <v>0.8809672725</v>
       </c>
       <c r="T19">
-        <v>1.012566575877193</v>
+        <v>1.026035208333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.017975865789474</v>
+        <v>0.8719389457534248</v>
       </c>
       <c r="D20">
-        <v>1.149672160526316</v>
+        <v>0.6031372515068496</v>
       </c>
       <c r="E20">
-        <v>0.9477376073684211</v>
+        <v>1.281328795753424</v>
       </c>
       <c r="F20">
-        <v>0.9567933405263157</v>
+        <v>0.9333907060273969</v>
       </c>
       <c r="G20">
-        <v>0.9567933405263157</v>
+        <v>0.9333907060273969</v>
       </c>
       <c r="H20">
-        <v>0.9600666142105264</v>
+        <v>1.502021513013699</v>
       </c>
       <c r="I20">
-        <v>0.9600666142105264</v>
+        <v>1.502021513013699</v>
       </c>
       <c r="J20">
-        <v>1.043153866842105</v>
+        <v>0.8466501587671232</v>
       </c>
       <c r="K20">
-        <v>0.9567933405263157</v>
+        <v>0.9333907060273969</v>
       </c>
       <c r="L20">
-        <v>1.043153866842105</v>
+        <v>0.8466501587671232</v>
       </c>
       <c r="M20">
-        <v>1.001610240526316</v>
+        <v>1.174335835890411</v>
       </c>
       <c r="N20">
-        <v>1.001610240526316</v>
+        <v>1.174335835890411</v>
       </c>
       <c r="O20">
-        <v>0.9836526961403509</v>
+        <v>1.210000155844749</v>
       </c>
       <c r="P20">
-        <v>0.9866712738596491</v>
+        <v>1.09402079260274</v>
       </c>
       <c r="Q20">
-        <v>0.9866712738596491</v>
+        <v>1.09402079260274</v>
       </c>
       <c r="R20">
-        <v>0.9792017905263158</v>
+        <v>1.053863270958904</v>
       </c>
       <c r="S20">
-        <v>0.9792017905263158</v>
+        <v>1.053863270958904</v>
       </c>
       <c r="T20">
-        <v>1.012566575877193</v>
+        <v>1.00641122847032</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.062968929823972</v>
+        <v>1.017975865789474</v>
       </c>
       <c r="D21">
-        <v>1.220272599678329</v>
+        <v>1.149672160526316</v>
       </c>
       <c r="E21">
-        <v>0.8593655019656384</v>
+        <v>0.9477376073684211</v>
       </c>
       <c r="F21">
-        <v>1.014626936988382</v>
+        <v>0.9567933405263157</v>
       </c>
       <c r="G21">
-        <v>1.014626936988382</v>
+        <v>0.9567933405263157</v>
       </c>
       <c r="H21">
-        <v>0.7597461781066924</v>
+        <v>0.9600666142105264</v>
       </c>
       <c r="I21">
-        <v>0.7597461781066924</v>
+        <v>0.9600666142105264</v>
       </c>
       <c r="J21">
-        <v>1.082862769416514</v>
+        <v>1.043153866842105</v>
       </c>
       <c r="K21">
-        <v>1.014626936988382</v>
+        <v>0.9567933405263157</v>
       </c>
       <c r="L21">
-        <v>1.082862769416514</v>
+        <v>1.043153866842105</v>
       </c>
       <c r="M21">
-        <v>0.921304473761603</v>
+        <v>1.001610240526316</v>
       </c>
       <c r="N21">
-        <v>0.921304473761603</v>
+        <v>1.001610240526316</v>
       </c>
       <c r="O21">
-        <v>0.9006581498296148</v>
+        <v>0.9836526961403509</v>
       </c>
       <c r="P21">
-        <v>0.9524119615038629</v>
+        <v>0.9866712738596491</v>
       </c>
       <c r="Q21">
-        <v>0.9524119615038629</v>
+        <v>0.9866712738596491</v>
       </c>
       <c r="R21">
-        <v>0.9679657053749928</v>
+        <v>0.9792017905263158</v>
       </c>
       <c r="S21">
-        <v>0.9679657053749928</v>
+        <v>0.9792017905263158</v>
       </c>
       <c r="T21">
-        <v>0.9999738193299214</v>
+        <v>1.012566575877193</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.016634160194589</v>
+        <v>1.017975865789474</v>
       </c>
       <c r="D22">
-        <v>1.028013016945666</v>
+        <v>1.149672160526316</v>
       </c>
       <c r="E22">
-        <v>0.9616110877432208</v>
+        <v>0.9477376073684211</v>
       </c>
       <c r="F22">
-        <v>1.04145784451504</v>
+        <v>0.9567933405263157</v>
       </c>
       <c r="G22">
-        <v>1.04145784451504</v>
+        <v>0.9567933405263157</v>
       </c>
       <c r="H22">
-        <v>0.9315213570110724</v>
+        <v>0.9600666142105264</v>
       </c>
       <c r="I22">
-        <v>0.9315213570110724</v>
+        <v>0.9600666142105264</v>
       </c>
       <c r="J22">
-        <v>1.00641866625033</v>
+        <v>1.043153866842105</v>
       </c>
       <c r="K22">
-        <v>1.04145784451504</v>
+        <v>0.9567933405263157</v>
       </c>
       <c r="L22">
-        <v>1.00641866625033</v>
+        <v>1.043153866842105</v>
       </c>
       <c r="M22">
-        <v>0.9689700116307012</v>
+        <v>1.001610240526316</v>
       </c>
       <c r="N22">
-        <v>0.9689700116307012</v>
+        <v>1.001610240526316</v>
       </c>
       <c r="O22">
-        <v>0.966517037001541</v>
+        <v>0.9836526961403509</v>
       </c>
       <c r="P22">
-        <v>0.9931326225921476</v>
+        <v>0.9866712738596491</v>
       </c>
       <c r="Q22">
-        <v>0.9931326225921474</v>
+        <v>0.9866712738596491</v>
       </c>
       <c r="R22">
-        <v>1.005213928072871</v>
+        <v>0.9792017905263158</v>
       </c>
       <c r="S22">
-        <v>1.005213928072871</v>
+        <v>0.9792017905263158</v>
       </c>
       <c r="T22">
-        <v>0.9976093554433199</v>
+        <v>1.012566575877193</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.035071447918576</v>
+        <v>1.062968929823972</v>
       </c>
       <c r="D23">
-        <v>0.9443252807997772</v>
+        <v>1.220272599678329</v>
       </c>
       <c r="E23">
-        <v>0.9350393378495424</v>
+        <v>0.8593655019656384</v>
       </c>
       <c r="F23">
-        <v>1.149037622560001</v>
+        <v>1.014626936988382</v>
       </c>
       <c r="G23">
-        <v>1.149037622560001</v>
+        <v>1.014626936988382</v>
       </c>
       <c r="H23">
-        <v>0.8204048001973048</v>
+        <v>0.7597461781066924</v>
       </c>
       <c r="I23">
-        <v>0.8204048001973048</v>
+        <v>0.7597461781066924</v>
       </c>
       <c r="J23">
-        <v>0.9881717888424015</v>
+        <v>1.082862769416514</v>
       </c>
       <c r="K23">
-        <v>1.149037622560001</v>
+        <v>1.014626936988382</v>
       </c>
       <c r="L23">
-        <v>0.9881717888424015</v>
+        <v>1.082862769416514</v>
       </c>
       <c r="M23">
-        <v>0.9042882945198532</v>
+        <v>0.921304473761603</v>
       </c>
       <c r="N23">
-        <v>0.9042882945198532</v>
+        <v>0.921304473761603</v>
       </c>
       <c r="O23">
-        <v>0.9145386422964162</v>
+        <v>0.9006581498296148</v>
       </c>
       <c r="P23">
-        <v>0.9858714038665694</v>
+        <v>0.9524119615038629</v>
       </c>
       <c r="Q23">
-        <v>0.9858714038665694</v>
+        <v>0.9524119615038629</v>
       </c>
       <c r="R23">
-        <v>1.026662958539927</v>
+        <v>0.9679657053749928</v>
       </c>
       <c r="S23">
-        <v>1.026662958539927</v>
+        <v>0.9679657053749928</v>
       </c>
       <c r="T23">
-        <v>0.9786750463612671</v>
+        <v>0.9999738193299214</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.004371796744131</v>
+        <v>1.016634160194589</v>
       </c>
       <c r="D24">
-        <v>1.071988105605746</v>
+        <v>1.028013016945666</v>
       </c>
       <c r="E24">
-        <v>0.9864557617646038</v>
+        <v>0.9616110877432208</v>
       </c>
       <c r="F24">
-        <v>0.9541843545190981</v>
+        <v>1.04145784451504</v>
       </c>
       <c r="G24">
-        <v>0.9541843545190981</v>
+        <v>1.04145784451504</v>
       </c>
       <c r="H24">
-        <v>0.9979665529146311</v>
+        <v>0.9315213570110724</v>
       </c>
       <c r="I24">
-        <v>0.9979665529146311</v>
+        <v>0.9315213570110724</v>
       </c>
       <c r="J24">
-        <v>1.025025072477704</v>
+        <v>1.00641866625033</v>
       </c>
       <c r="K24">
-        <v>0.9541843545190981</v>
+        <v>1.04145784451504</v>
       </c>
       <c r="L24">
-        <v>1.025025072477704</v>
+        <v>1.00641866625033</v>
       </c>
       <c r="M24">
-        <v>1.011495812696168</v>
+        <v>0.9689700116307012</v>
       </c>
       <c r="N24">
-        <v>1.011495812696168</v>
+        <v>0.9689700116307012</v>
       </c>
       <c r="O24">
-        <v>1.003149129052313</v>
+        <v>0.966517037001541</v>
       </c>
       <c r="P24">
-        <v>0.9923919933038111</v>
+        <v>0.9931326225921476</v>
       </c>
       <c r="Q24">
-        <v>0.9923919933038109</v>
+        <v>0.9931326225921474</v>
       </c>
       <c r="R24">
-        <v>0.9828400836076328</v>
+        <v>1.005213928072871</v>
       </c>
       <c r="S24">
-        <v>0.9828400836076328</v>
+        <v>1.005213928072871</v>
       </c>
       <c r="T24">
-        <v>1.006665274004319</v>
+        <v>0.9976093554433199</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.062968929823972</v>
+        <v>1.035071447918576</v>
       </c>
       <c r="D25">
-        <v>1.220272599678329</v>
+        <v>0.9443252807997772</v>
       </c>
       <c r="E25">
-        <v>0.8593655019656384</v>
+        <v>0.9350393378495424</v>
       </c>
       <c r="F25">
-        <v>1.014626936988383</v>
+        <v>1.149037622560001</v>
       </c>
       <c r="G25">
-        <v>1.014626936988383</v>
+        <v>1.149037622560001</v>
       </c>
       <c r="H25">
-        <v>0.7597461781066924</v>
+        <v>0.8204048001973048</v>
       </c>
       <c r="I25">
-        <v>0.7597461781066924</v>
+        <v>0.8204048001973048</v>
       </c>
       <c r="J25">
-        <v>1.082862769416514</v>
+        <v>0.9881717888424015</v>
       </c>
       <c r="K25">
-        <v>1.014626936988383</v>
+        <v>1.149037622560001</v>
       </c>
       <c r="L25">
-        <v>1.082862769416514</v>
+        <v>0.9881717888424015</v>
       </c>
       <c r="M25">
-        <v>0.921304473761603</v>
+        <v>0.9042882945198532</v>
       </c>
       <c r="N25">
-        <v>0.921304473761603</v>
+        <v>0.9042882945198532</v>
       </c>
       <c r="O25">
-        <v>0.9006581498296148</v>
+        <v>0.9145386422964162</v>
       </c>
       <c r="P25">
-        <v>0.9524119615038629</v>
+        <v>0.9858714038665694</v>
       </c>
       <c r="Q25">
-        <v>0.9524119615038629</v>
+        <v>0.9858714038665694</v>
       </c>
       <c r="R25">
-        <v>0.9679657053749928</v>
+        <v>1.026662958539927</v>
       </c>
       <c r="S25">
-        <v>0.9679657053749928</v>
+        <v>1.026662958539927</v>
       </c>
       <c r="T25">
-        <v>0.9999738193299214</v>
+        <v>0.9786750463612671</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.016634160194589</v>
+        <v>1.004371796744131</v>
       </c>
       <c r="D26">
-        <v>1.028013016945666</v>
+        <v>1.071988105605746</v>
       </c>
       <c r="E26">
-        <v>0.9616110877432208</v>
+        <v>0.9864557617646038</v>
       </c>
       <c r="F26">
-        <v>1.04145784451504</v>
+        <v>0.9541843545190981</v>
       </c>
       <c r="G26">
-        <v>1.04145784451504</v>
+        <v>0.9541843545190981</v>
       </c>
       <c r="H26">
-        <v>0.9315213570110723</v>
+        <v>0.9979665529146311</v>
       </c>
       <c r="I26">
-        <v>0.9315213570110723</v>
+        <v>0.9979665529146311</v>
       </c>
       <c r="J26">
-        <v>1.00641866625033</v>
+        <v>1.025025072477704</v>
       </c>
       <c r="K26">
-        <v>1.04145784451504</v>
+        <v>0.9541843545190981</v>
       </c>
       <c r="L26">
-        <v>1.00641866625033</v>
+        <v>1.025025072477704</v>
       </c>
       <c r="M26">
-        <v>0.9689700116307011</v>
+        <v>1.011495812696168</v>
       </c>
       <c r="N26">
-        <v>0.9689700116307011</v>
+        <v>1.011495812696168</v>
       </c>
       <c r="O26">
-        <v>0.966517037001541</v>
+        <v>1.003149129052313</v>
       </c>
       <c r="P26">
-        <v>0.9931326225921474</v>
+        <v>0.9923919933038111</v>
       </c>
       <c r="Q26">
-        <v>0.9931326225921474</v>
+        <v>0.9923919933038109</v>
       </c>
       <c r="R26">
-        <v>1.005213928072871</v>
+        <v>0.9828400836076328</v>
       </c>
       <c r="S26">
-        <v>1.005213928072871</v>
+        <v>0.9828400836076328</v>
       </c>
       <c r="T26">
-        <v>0.9976093554433199</v>
+        <v>1.006665274004319</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9796708009316484</v>
+        <v>1.062968929823972</v>
       </c>
       <c r="D27">
-        <v>0.9388171093576456</v>
+        <v>1.220272599678329</v>
       </c>
       <c r="E27">
-        <v>1.046676515631951</v>
+        <v>0.8593655019656384</v>
       </c>
       <c r="F27">
-        <v>0.9800743610234084</v>
+        <v>1.014626936988383</v>
       </c>
       <c r="G27">
-        <v>0.9800743610234084</v>
+        <v>1.014626936988383</v>
       </c>
       <c r="H27">
-        <v>1.077237485059289</v>
+        <v>0.7597461781066924</v>
       </c>
       <c r="I27">
-        <v>1.077237485059289</v>
+        <v>0.7597461781066924</v>
       </c>
       <c r="J27">
-        <v>0.9795047541632883</v>
+        <v>1.082862769416514</v>
       </c>
       <c r="K27">
-        <v>0.9800743610234084</v>
+        <v>1.014626936988383</v>
       </c>
       <c r="L27">
-        <v>0.9795047541632883</v>
+        <v>1.082862769416514</v>
       </c>
       <c r="M27">
-        <v>1.028371119611289</v>
+        <v>0.921304473761603</v>
       </c>
       <c r="N27">
-        <v>1.028371119611289</v>
+        <v>0.921304473761603</v>
       </c>
       <c r="O27">
-        <v>1.034472918284843</v>
+        <v>0.9006581498296148</v>
       </c>
       <c r="P27">
-        <v>1.012272200081995</v>
+        <v>0.9524119615038629</v>
       </c>
       <c r="Q27">
-        <v>1.012272200081995</v>
+        <v>0.9524119615038629</v>
       </c>
       <c r="R27">
-        <v>1.004222740317348</v>
+        <v>0.9679657053749928</v>
       </c>
       <c r="S27">
-        <v>1.004222740317348</v>
+        <v>0.9679657053749928</v>
       </c>
       <c r="T27">
-        <v>1.000330171027872</v>
+        <v>0.9999738193299214</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.015926421949576</v>
+        <v>1.016634160194589</v>
       </c>
       <c r="D28">
-        <v>1.066712902859506</v>
+        <v>1.028013016945666</v>
       </c>
       <c r="E28">
-        <v>0.9622721308520906</v>
+        <v>0.9616110877432208</v>
       </c>
       <c r="F28">
-        <v>1.000644890410327</v>
+        <v>1.04145784451504</v>
       </c>
       <c r="G28">
-        <v>1.000644890410327</v>
+        <v>1.04145784451504</v>
       </c>
       <c r="H28">
-        <v>0.9422057789184132</v>
+        <v>0.9315213570110723</v>
       </c>
       <c r="I28">
-        <v>0.9422057789184132</v>
+        <v>0.9315213570110723</v>
       </c>
       <c r="J28">
-        <v>1.022215120488832</v>
+        <v>1.00641866625033</v>
       </c>
       <c r="K28">
-        <v>1.000644890410327</v>
+        <v>1.04145784451504</v>
       </c>
       <c r="L28">
-        <v>1.022215120488832</v>
+        <v>1.00641866625033</v>
       </c>
       <c r="M28">
-        <v>0.9822104497036226</v>
+        <v>0.9689700116307011</v>
       </c>
       <c r="N28">
-        <v>0.9822104497036226</v>
+        <v>0.9689700116307011</v>
       </c>
       <c r="O28">
-        <v>0.9755643434197786</v>
+        <v>0.966517037001541</v>
       </c>
       <c r="P28">
-        <v>0.9883552632725241</v>
+        <v>0.9931326225921474</v>
       </c>
       <c r="Q28">
-        <v>0.9883552632725241</v>
+        <v>0.9931326225921474</v>
       </c>
       <c r="R28">
-        <v>0.9914276700569749</v>
+        <v>1.005213928072871</v>
       </c>
       <c r="S28">
-        <v>0.9914276700569749</v>
+        <v>1.005213928072871</v>
       </c>
       <c r="T28">
-        <v>1.001662874246457</v>
+        <v>0.9976093554433199</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9796708009316484</v>
+      </c>
+      <c r="D29">
+        <v>0.9388171093576456</v>
+      </c>
+      <c r="E29">
+        <v>1.046676515631951</v>
+      </c>
+      <c r="F29">
+        <v>0.9800743610234084</v>
+      </c>
+      <c r="G29">
+        <v>0.9800743610234084</v>
+      </c>
+      <c r="H29">
+        <v>1.077237485059289</v>
+      </c>
+      <c r="I29">
+        <v>1.077237485059289</v>
+      </c>
+      <c r="J29">
+        <v>0.9795047541632883</v>
+      </c>
+      <c r="K29">
+        <v>0.9800743610234084</v>
+      </c>
+      <c r="L29">
+        <v>0.9795047541632883</v>
+      </c>
+      <c r="M29">
+        <v>1.028371119611289</v>
+      </c>
+      <c r="N29">
+        <v>1.028371119611289</v>
+      </c>
+      <c r="O29">
+        <v>1.034472918284843</v>
+      </c>
+      <c r="P29">
+        <v>1.012272200081995</v>
+      </c>
+      <c r="Q29">
+        <v>1.012272200081995</v>
+      </c>
+      <c r="R29">
+        <v>1.004222740317348</v>
+      </c>
+      <c r="S29">
+        <v>1.004222740317348</v>
+      </c>
+      <c r="T29">
+        <v>1.000330171027872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.015926421949576</v>
+      </c>
+      <c r="D30">
+        <v>1.066712902859506</v>
+      </c>
+      <c r="E30">
+        <v>0.9622721308520906</v>
+      </c>
+      <c r="F30">
+        <v>1.000644890410327</v>
+      </c>
+      <c r="G30">
+        <v>1.000644890410327</v>
+      </c>
+      <c r="H30">
+        <v>0.9422057789184132</v>
+      </c>
+      <c r="I30">
+        <v>0.9422057789184132</v>
+      </c>
+      <c r="J30">
+        <v>1.022215120488832</v>
+      </c>
+      <c r="K30">
+        <v>1.000644890410327</v>
+      </c>
+      <c r="L30">
+        <v>1.022215120488832</v>
+      </c>
+      <c r="M30">
+        <v>0.9822104497036226</v>
+      </c>
+      <c r="N30">
+        <v>0.9822104497036226</v>
+      </c>
+      <c r="O30">
+        <v>0.9755643434197786</v>
+      </c>
+      <c r="P30">
+        <v>0.9883552632725241</v>
+      </c>
+      <c r="Q30">
+        <v>0.9883552632725241</v>
+      </c>
+      <c r="R30">
+        <v>0.9914276700569749</v>
+      </c>
+      <c r="S30">
+        <v>0.9914276700569749</v>
+      </c>
+      <c r="T30">
+        <v>1.001662874246457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.080070810559743</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.247406778171029</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.8224734586843748</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.049460403831756</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.049460403831756</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.6857972887800929</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.6857972887800929</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.092667693538542</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.049460403831756</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.092667693538542</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.8892324911593174</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.8892324911593174</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.8669794803343365</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9426417953834637</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9426417953834637</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9693464474955369</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9693464474955369</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9963127389275898</v>
       </c>
     </row>
